--- a/Table_4.xlsx
+++ b/Table_4.xlsx
@@ -3074,7 +3074,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
@@ -3082,9 +3082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3102,6 +3099,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Table1" ref="$D$6:$K$506">
+  <autoFilter ref="$D$6:$K$506"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Номер задачи"/>
+    <tableColumn id="2" name="Решение"/>
+    <tableColumn id="3" name="Кол-во предметов"/>
+    <tableColumn id="4" name="Время"/>
+    <tableColumn id="5" name="Минимум фитнесса"/>
+    <tableColumn id="6" name="Точность"/>
+    <tableColumn id="7" name="Причина"/>
+    <tableColumn id="8" name="Кол-во поколений"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3603,14 +3617,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="4" max="4" width="13.28125"/>
+    <col bestFit="1" min="4" max="4" width="15.8515625"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="24.7109375"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="0" width="17.00390625"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="6.421875"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="18.421875"/>
-    <col bestFit="1" min="9" max="9" width="8.8515625"/>
-    <col bestFit="1" min="10" max="10" width="8.57421875"/>
-    <col bestFit="1" min="11" max="11" width="17.00390625"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="0" width="19.7109375"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="8.8515625"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="21.00390625"/>
+    <col bestFit="1" min="9" max="9" width="11.28125"/>
+    <col bestFit="1" min="10" max="10" width="11.00390625"/>
+    <col bestFit="1" min="11" max="11" width="19.7109375"/>
     <col min="14" max="14" style="2" width="9.140625"/>
   </cols>
   <sheetData>
@@ -3621,10 +3635,10 @@
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -3648,10 +3662,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <f>LEN(E7)-LEN(SUBSTITUTE(E7,"1",""))</f>
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
+        <f t="shared" ref="F7:F9" si="0">LEN(E7)-LEN(SUBSTITUTE(E7,"1",""))</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.376</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -3676,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <f>LEN(E8)-LEN(SUBSTITUTE(E8,"1",""))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.001</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -3694,10 +3708,7 @@
       <c r="K8" s="3">
         <v>10</v>
       </c>
-      <c r="N8" s="2">
-        <f>SUM(G7:G506)</f>
-        <v>32.206000000000024</v>
-      </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" ht="14.25">
       <c r="D9" s="3">
@@ -3707,10 +3718,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="4">
-        <f>LEN(E9)-LEN(SUBSTITUTE(E9,"1",""))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.010999999999999999</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -3734,10 +3745,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="4">
-        <f>LEN(E10)-LEN(SUBSTITUTE(E10,"1",""))</f>
+        <f t="shared" ref="F10:F73" si="1">LEN(E10)-LEN(SUBSTITUTE(E10,"1",""))</f>
         <v>8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -3761,10 +3772,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="4">
-        <f>LEN(E11)-LEN(SUBSTITUTE(E11,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -3788,10 +3799,10 @@
         <v>18</v>
       </c>
       <c r="F12" s="4">
-        <f>LEN(E12)-LEN(SUBSTITUTE(E12,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -3815,10 +3826,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="4">
-        <f>LEN(E13)-LEN(SUBSTITUTE(E13,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -3842,10 +3853,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="4">
-        <f>LEN(E14)-LEN(SUBSTITUTE(E14,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -3869,10 +3880,10 @@
         <v>24</v>
       </c>
       <c r="F15" s="4">
-        <f>LEN(E15)-LEN(SUBSTITUTE(E15,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.032000000000000001</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3896,10 +3907,10 @@
         <v>26</v>
       </c>
       <c r="F16" s="4">
-        <f>LEN(E16)-LEN(SUBSTITUTE(E16,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.001</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3923,10 +3934,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="4">
-        <f>LEN(E17)-LEN(SUBSTITUTE(E17,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.021000000000000001</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3950,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="4">
-        <f>LEN(E18)-LEN(SUBSTITUTE(E18,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.002</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -3977,10 +3988,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="4">
-        <f>LEN(E19)-LEN(SUBSTITUTE(E19,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -4004,10 +4015,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="4">
-        <f>LEN(E20)-LEN(SUBSTITUTE(E20,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.30499999999999999</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -4031,10 +4042,10 @@
         <v>36</v>
       </c>
       <c r="F21" s="4">
-        <f>LEN(E21)-LEN(SUBSTITUTE(E21,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -4058,10 +4069,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="4">
-        <f>LEN(E22)-LEN(SUBSTITUTE(E22,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -4085,10 +4096,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="4">
-        <f>LEN(E23)-LEN(SUBSTITUTE(E23,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>0.34899999999999998</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -4112,10 +4123,10 @@
         <v>42</v>
       </c>
       <c r="F24" s="4">
-        <f>LEN(E24)-LEN(SUBSTITUTE(E24,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.002</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -4139,10 +4150,10 @@
         <v>44</v>
       </c>
       <c r="F25" s="4">
-        <f>LEN(E25)-LEN(SUBSTITUTE(E25,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -4166,10 +4177,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="4">
-        <f>LEN(E26)-LEN(SUBSTITUTE(E26,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>0.028000000000000001</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -4193,10 +4204,10 @@
         <v>48</v>
       </c>
       <c r="F27" s="4">
-        <f>LEN(E27)-LEN(SUBSTITUTE(E27,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.070999999999999994</v>
       </c>
       <c r="H27" s="4" t="s">
@@ -4220,10 +4231,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="4">
-        <f>LEN(E28)-LEN(SUBSTITUTE(E28,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.090999999999999998</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -4247,10 +4258,10 @@
         <v>52</v>
       </c>
       <c r="F29" s="4">
-        <f>LEN(E29)-LEN(SUBSTITUTE(E29,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>0.25900000000000001</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -4274,10 +4285,10 @@
         <v>54</v>
       </c>
       <c r="F30" s="4">
-        <f>LEN(E30)-LEN(SUBSTITUTE(E30,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.002</v>
       </c>
       <c r="H30" s="4" t="s">
@@ -4301,10 +4312,10 @@
         <v>56</v>
       </c>
       <c r="F31" s="4">
-        <f>LEN(E31)-LEN(SUBSTITUTE(E31,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>0.001</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -4328,10 +4339,10 @@
         <v>58</v>
       </c>
       <c r="F32" s="4">
-        <f>LEN(E32)-LEN(SUBSTITUTE(E32,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>0.002</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -4355,10 +4366,10 @@
         <v>60</v>
       </c>
       <c r="F33" s="4">
-        <f>LEN(E33)-LEN(SUBSTITUTE(E33,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H33" s="4" t="s">
@@ -4382,10 +4393,10 @@
         <v>62</v>
       </c>
       <c r="F34" s="4">
-        <f>LEN(E34)-LEN(SUBSTITUTE(E34,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>0.002</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -4409,10 +4420,10 @@
         <v>64</v>
       </c>
       <c r="F35" s="4">
-        <f>LEN(E35)-LEN(SUBSTITUTE(E35,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -4436,10 +4447,10 @@
         <v>66</v>
       </c>
       <c r="F36" s="4">
-        <f>LEN(E36)-LEN(SUBSTITUTE(E36,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -4463,10 +4474,10 @@
         <v>68</v>
       </c>
       <c r="F37" s="4">
-        <f>LEN(E37)-LEN(SUBSTITUTE(E37,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>0.096000000000000002</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -4490,10 +4501,10 @@
         <v>70</v>
       </c>
       <c r="F38" s="4">
-        <f>LEN(E38)-LEN(SUBSTITUTE(E38,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>0.002</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -4517,10 +4528,10 @@
         <v>72</v>
       </c>
       <c r="F39" s="4">
-        <f>LEN(E39)-LEN(SUBSTITUTE(E39,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -4544,10 +4555,10 @@
         <v>74</v>
       </c>
       <c r="F40" s="4">
-        <f>LEN(E40)-LEN(SUBSTITUTE(E40,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>0.039</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4571,10 +4582,10 @@
         <v>76</v>
       </c>
       <c r="F41" s="4">
-        <f>LEN(E41)-LEN(SUBSTITUTE(E41,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -4598,10 +4609,10 @@
         <v>78</v>
       </c>
       <c r="F42" s="4">
-        <f>LEN(E42)-LEN(SUBSTITUTE(E42,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -4625,10 +4636,10 @@
         <v>80</v>
       </c>
       <c r="F43" s="4">
-        <f>LEN(E43)-LEN(SUBSTITUTE(E43,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>0.050999999999999997</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -4652,10 +4663,10 @@
         <v>82</v>
       </c>
       <c r="F44" s="4">
-        <f>LEN(E44)-LEN(SUBSTITUTE(E44,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -4679,10 +4690,10 @@
         <v>84</v>
       </c>
       <c r="F45" s="4">
-        <f>LEN(E45)-LEN(SUBSTITUTE(E45,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -4706,10 +4717,10 @@
         <v>86</v>
       </c>
       <c r="F46" s="4">
-        <f>LEN(E46)-LEN(SUBSTITUTE(E46,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -4733,10 +4744,10 @@
         <v>88</v>
       </c>
       <c r="F47" s="4">
-        <f>LEN(E47)-LEN(SUBSTITUTE(E47,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -4760,10 +4771,10 @@
         <v>90</v>
       </c>
       <c r="F48" s="4">
-        <f>LEN(E48)-LEN(SUBSTITUTE(E48,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -4787,10 +4798,10 @@
         <v>92</v>
       </c>
       <c r="F49" s="4">
-        <f>LEN(E49)-LEN(SUBSTITUTE(E49,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -4814,10 +4825,10 @@
         <v>94</v>
       </c>
       <c r="F50" s="4">
-        <f>LEN(E50)-LEN(SUBSTITUTE(E50,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>0.002</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -4841,10 +4852,10 @@
         <v>96</v>
       </c>
       <c r="F51" s="4">
-        <f>LEN(E51)-LEN(SUBSTITUTE(E51,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>0.029000000000000001</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -4868,10 +4879,10 @@
         <v>98</v>
       </c>
       <c r="F52" s="4">
-        <f>LEN(E52)-LEN(SUBSTITUTE(E52,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>0.23100000000000001</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -4895,10 +4906,10 @@
         <v>100</v>
       </c>
       <c r="F53" s="4">
-        <f>LEN(E53)-LEN(SUBSTITUTE(E53,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>0.014</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -4922,10 +4933,10 @@
         <v>102</v>
       </c>
       <c r="F54" s="4">
-        <f>LEN(E54)-LEN(SUBSTITUTE(E54,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -4949,10 +4960,10 @@
         <v>104</v>
       </c>
       <c r="F55" s="4">
-        <f>LEN(E55)-LEN(SUBSTITUTE(E55,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>2.9529999999999998</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -4976,10 +4987,10 @@
         <v>106</v>
       </c>
       <c r="F56" s="4">
-        <f>LEN(E56)-LEN(SUBSTITUTE(E56,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -5003,10 +5014,10 @@
         <v>108</v>
       </c>
       <c r="F57" s="4">
-        <f>LEN(E57)-LEN(SUBSTITUTE(E57,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>0.29799999999999999</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -5030,10 +5041,10 @@
         <v>110</v>
       </c>
       <c r="F58" s="4">
-        <f>LEN(E58)-LEN(SUBSTITUTE(E58,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -5057,10 +5068,10 @@
         <v>112</v>
       </c>
       <c r="F59" s="4">
-        <f>LEN(E59)-LEN(SUBSTITUTE(E59,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>0.025999999999999999</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -5084,10 +5095,10 @@
         <v>114</v>
       </c>
       <c r="F60" s="4">
-        <f>LEN(E60)-LEN(SUBSTITUTE(E60,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>0.012</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -5111,10 +5122,10 @@
         <v>116</v>
       </c>
       <c r="F61" s="4">
-        <f>LEN(E61)-LEN(SUBSTITUTE(E61,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>0.001</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -5138,10 +5149,10 @@
         <v>118</v>
       </c>
       <c r="F62" s="4">
-        <f>LEN(E62)-LEN(SUBSTITUTE(E62,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>0.014999999999999999</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -5165,10 +5176,10 @@
         <v>120</v>
       </c>
       <c r="F63" s="4">
-        <f>LEN(E63)-LEN(SUBSTITUTE(E63,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -5192,10 +5203,10 @@
         <v>122</v>
       </c>
       <c r="F64" s="4">
-        <f>LEN(E64)-LEN(SUBSTITUTE(E64,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>0.027</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -5219,10 +5230,10 @@
         <v>124</v>
       </c>
       <c r="F65" s="4">
-        <f>LEN(E65)-LEN(SUBSTITUTE(E65,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <v>0.089999999999999997</v>
       </c>
       <c r="H65" s="4" t="s">
@@ -5246,10 +5257,10 @@
         <v>126</v>
       </c>
       <c r="F66" s="4">
-        <f>LEN(E66)-LEN(SUBSTITUTE(E66,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>0.002</v>
       </c>
       <c r="H66" s="4" t="s">
@@ -5273,10 +5284,10 @@
         <v>128</v>
       </c>
       <c r="F67" s="4">
-        <f>LEN(E67)-LEN(SUBSTITUTE(E67,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -5300,10 +5311,10 @@
         <v>130</v>
       </c>
       <c r="F68" s="4">
-        <f>LEN(E68)-LEN(SUBSTITUTE(E68,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -5327,10 +5338,10 @@
         <v>132</v>
       </c>
       <c r="F69" s="4">
-        <f>LEN(E69)-LEN(SUBSTITUTE(E69,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <v>0.021000000000000001</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -5354,10 +5365,10 @@
         <v>134</v>
       </c>
       <c r="F70" s="4">
-        <f>LEN(E70)-LEN(SUBSTITUTE(E70,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H70" s="4" t="s">
@@ -5381,10 +5392,10 @@
         <v>136</v>
       </c>
       <c r="F71" s="4">
-        <f>LEN(E71)-LEN(SUBSTITUTE(E71,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>0.001</v>
       </c>
       <c r="H71" s="4" t="s">
@@ -5408,10 +5419,10 @@
         <v>138</v>
       </c>
       <c r="F72" s="4">
-        <f>LEN(E72)-LEN(SUBSTITUTE(E72,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -5435,10 +5446,10 @@
         <v>140</v>
       </c>
       <c r="F73" s="4">
-        <f>LEN(E73)-LEN(SUBSTITUTE(E73,"1",""))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <v>0.001</v>
       </c>
       <c r="H73" s="4" t="s">
@@ -5462,10 +5473,10 @@
         <v>142</v>
       </c>
       <c r="F74" s="4">
-        <f>LEN(E74)-LEN(SUBSTITUTE(E74,"1",""))</f>
+        <f t="shared" ref="F74:F99" si="2">LEN(E74)-LEN(SUBSTITUTE(E74,"1",""))</f>
         <v>4</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="5">
         <v>0.53800000000000003</v>
       </c>
       <c r="H74" s="4" t="s">
@@ -5489,10 +5500,10 @@
         <v>144</v>
       </c>
       <c r="F75" s="4">
-        <f>LEN(E75)-LEN(SUBSTITUTE(E75,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>0.002</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -5516,10 +5527,10 @@
         <v>146</v>
       </c>
       <c r="F76" s="4">
-        <f>LEN(E76)-LEN(SUBSTITUTE(E76,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -5543,10 +5554,10 @@
         <v>148</v>
       </c>
       <c r="F77" s="4">
-        <f>LEN(E77)-LEN(SUBSTITUTE(E77,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H77" s="4" t="s">
@@ -5570,10 +5581,10 @@
         <v>150</v>
       </c>
       <c r="F78" s="4">
-        <f>LEN(E78)-LEN(SUBSTITUTE(E78,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <v>0.002</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -5597,10 +5608,10 @@
         <v>152</v>
       </c>
       <c r="F79" s="4">
-        <f>LEN(E79)-LEN(SUBSTITUTE(E79,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>0.002</v>
       </c>
       <c r="H79" s="4" t="s">
@@ -5624,10 +5635,10 @@
         <v>154</v>
       </c>
       <c r="F80" s="4">
-        <f>LEN(E80)-LEN(SUBSTITUTE(E80,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H80" s="4" t="s">
@@ -5651,10 +5662,10 @@
         <v>156</v>
       </c>
       <c r="F81" s="4">
-        <f>LEN(E81)-LEN(SUBSTITUTE(E81,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -5678,10 +5689,10 @@
         <v>158</v>
       </c>
       <c r="F82" s="4">
-        <f>LEN(E82)-LEN(SUBSTITUTE(E82,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <v>0.28899999999999998</v>
       </c>
       <c r="H82" s="4" t="s">
@@ -5705,10 +5716,10 @@
         <v>160</v>
       </c>
       <c r="F83" s="4">
-        <f>LEN(E83)-LEN(SUBSTITUTE(E83,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>0.023</v>
       </c>
       <c r="H83" s="4" t="s">
@@ -5732,10 +5743,10 @@
         <v>162</v>
       </c>
       <c r="F84" s="4">
-        <f>LEN(E84)-LEN(SUBSTITUTE(E84,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H84" s="4" t="s">
@@ -5759,10 +5770,10 @@
         <v>164</v>
       </c>
       <c r="F85" s="4">
-        <f>LEN(E85)-LEN(SUBSTITUTE(E85,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H85" s="4" t="s">
@@ -5786,10 +5797,10 @@
         <v>166</v>
       </c>
       <c r="F86" s="4">
-        <f>LEN(E86)-LEN(SUBSTITUTE(E86,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <v>0.14799999999999999</v>
       </c>
       <c r="H86" s="4" t="s">
@@ -5813,10 +5824,10 @@
         <v>168</v>
       </c>
       <c r="F87" s="4">
-        <f>LEN(E87)-LEN(SUBSTITUTE(E87,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <v>0.047</v>
       </c>
       <c r="H87" s="4" t="s">
@@ -5840,10 +5851,10 @@
         <v>170</v>
       </c>
       <c r="F88" s="4">
-        <f>LEN(E88)-LEN(SUBSTITUTE(E88,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G88" s="5">
         <v>0.002</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -5867,10 +5878,10 @@
         <v>172</v>
       </c>
       <c r="F89" s="4">
-        <f>LEN(E89)-LEN(SUBSTITUTE(E89,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <v>0.032000000000000001</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -5894,10 +5905,10 @@
         <v>174</v>
       </c>
       <c r="F90" s="4">
-        <f>LEN(E90)-LEN(SUBSTITUTE(E90,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
         <v>0.14099999999999999</v>
       </c>
       <c r="H90" s="4" t="s">
@@ -5921,10 +5932,10 @@
         <v>176</v>
       </c>
       <c r="F91" s="4">
-        <f>LEN(E91)-LEN(SUBSTITUTE(E91,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>0.503</v>
       </c>
       <c r="H91" s="4" t="s">
@@ -5948,10 +5959,10 @@
         <v>178</v>
       </c>
       <c r="F92" s="4">
-        <f>LEN(E92)-LEN(SUBSTITUTE(E92,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
         <v>0.025000000000000001</v>
       </c>
       <c r="H92" s="4" t="s">
@@ -5975,10 +5986,10 @@
         <v>180</v>
       </c>
       <c r="F93" s="4">
-        <f>LEN(E93)-LEN(SUBSTITUTE(E93,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <v>0.065000000000000002</v>
       </c>
       <c r="H93" s="4" t="s">
@@ -6002,10 +6013,10 @@
         <v>182</v>
       </c>
       <c r="F94" s="4">
-        <f>LEN(E94)-LEN(SUBSTITUTE(E94,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
         <v>0.012</v>
       </c>
       <c r="H94" s="4" t="s">
@@ -6029,10 +6040,10 @@
         <v>184</v>
       </c>
       <c r="F95" s="4">
-        <f>LEN(E95)-LEN(SUBSTITUTE(E95,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <v>0.001</v>
       </c>
       <c r="H95" s="4" t="s">
@@ -6056,10 +6067,10 @@
         <v>186</v>
       </c>
       <c r="F96" s="4">
-        <f>LEN(E96)-LEN(SUBSTITUTE(E96,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H96" s="4" t="s">
@@ -6083,10 +6094,10 @@
         <v>188</v>
       </c>
       <c r="F97" s="4">
-        <f>LEN(E97)-LEN(SUBSTITUTE(E97,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G97" s="5">
         <v>0.001</v>
       </c>
       <c r="H97" s="4" t="s">
@@ -6110,10 +6121,10 @@
         <v>190</v>
       </c>
       <c r="F98" s="4">
-        <f>LEN(E98)-LEN(SUBSTITUTE(E98,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G98" s="6">
+      <c r="G98" s="5">
         <v>0.017999999999999999</v>
       </c>
       <c r="H98" s="4" t="s">
@@ -6137,10 +6148,10 @@
         <v>192</v>
       </c>
       <c r="F99" s="4">
-        <f>LEN(E99)-LEN(SUBSTITUTE(E99,"1",""))</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G99" s="5">
         <v>0.025999999999999999</v>
       </c>
       <c r="H99" s="4" t="s">
@@ -6164,10 +6175,10 @@
         <v>194</v>
       </c>
       <c r="F100" s="4">
-        <f>LEN(E100)-LEN(SUBSTITUTE(E100,"1",""))</f>
+        <f t="shared" ref="F100:F163" si="3">LEN(E100)-LEN(SUBSTITUTE(E100,"1",""))</f>
         <v>7</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="5">
         <v>0.031</v>
       </c>
       <c r="H100" s="4" t="s">
@@ -6191,10 +6202,10 @@
         <v>196</v>
       </c>
       <c r="F101" s="4">
-        <f>LEN(E101)-LEN(SUBSTITUTE(E101,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G101" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H101" s="4" t="s">
@@ -6218,10 +6229,10 @@
         <v>198</v>
       </c>
       <c r="F102" s="4">
-        <f>LEN(E102)-LEN(SUBSTITUTE(E102,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H102" s="4" t="s">
@@ -6245,10 +6256,10 @@
         <v>200</v>
       </c>
       <c r="F103" s="4">
-        <f>LEN(E103)-LEN(SUBSTITUTE(E103,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G103" s="5">
         <v>0.001</v>
       </c>
       <c r="H103" s="4" t="s">
@@ -6272,10 +6283,10 @@
         <v>202</v>
       </c>
       <c r="F104" s="4">
-        <f>LEN(E104)-LEN(SUBSTITUTE(E104,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H104" s="4" t="s">
@@ -6299,10 +6310,10 @@
         <v>204</v>
       </c>
       <c r="F105" s="4">
-        <f>LEN(E105)-LEN(SUBSTITUTE(E105,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G105" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H105" s="4" t="s">
@@ -6326,10 +6337,10 @@
         <v>206</v>
       </c>
       <c r="F106" s="4">
-        <f>LEN(E106)-LEN(SUBSTITUTE(E106,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G106" s="5">
         <v>0.016</v>
       </c>
       <c r="H106" s="4" t="s">
@@ -6353,10 +6364,10 @@
         <v>208</v>
       </c>
       <c r="F107" s="4">
-        <f>LEN(E107)-LEN(SUBSTITUTE(E107,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G107" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H107" s="4" t="s">
@@ -6380,10 +6391,10 @@
         <v>210</v>
       </c>
       <c r="F108" s="4">
-        <f>LEN(E108)-LEN(SUBSTITUTE(E108,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G108" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H108" s="4" t="s">
@@ -6407,10 +6418,10 @@
         <v>212</v>
       </c>
       <c r="F109" s="4">
-        <f>LEN(E109)-LEN(SUBSTITUTE(E109,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G109" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -6434,10 +6445,10 @@
         <v>214</v>
       </c>
       <c r="F110" s="4">
-        <f>LEN(E110)-LEN(SUBSTITUTE(E110,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G110" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H110" s="4" t="s">
@@ -6461,10 +6472,10 @@
         <v>216</v>
       </c>
       <c r="F111" s="4">
-        <f>LEN(E111)-LEN(SUBSTITUTE(E111,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G111" s="6">
+      <c r="G111" s="5">
         <v>0.002</v>
       </c>
       <c r="H111" s="4" t="s">
@@ -6488,10 +6499,10 @@
         <v>218</v>
       </c>
       <c r="F112" s="4">
-        <f>LEN(E112)-LEN(SUBSTITUTE(E112,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G112" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H112" s="4" t="s">
@@ -6515,10 +6526,10 @@
         <v>220</v>
       </c>
       <c r="F113" s="4">
-        <f>LEN(E113)-LEN(SUBSTITUTE(E113,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G113" s="6">
+      <c r="G113" s="5">
         <v>0.01</v>
       </c>
       <c r="H113" s="4" t="s">
@@ -6542,10 +6553,10 @@
         <v>222</v>
       </c>
       <c r="F114" s="4">
-        <f>LEN(E114)-LEN(SUBSTITUTE(E114,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G114" s="6">
+      <c r="G114" s="5">
         <v>0.002</v>
       </c>
       <c r="H114" s="4" t="s">
@@ -6569,10 +6580,10 @@
         <v>224</v>
       </c>
       <c r="F115" s="4">
-        <f>LEN(E115)-LEN(SUBSTITUTE(E115,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G115" s="6">
+      <c r="G115" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H115" s="4" t="s">
@@ -6596,10 +6607,10 @@
         <v>226</v>
       </c>
       <c r="F116" s="4">
-        <f>LEN(E116)-LEN(SUBSTITUTE(E116,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G116" s="6">
+      <c r="G116" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H116" s="4" t="s">
@@ -6623,10 +6634,10 @@
         <v>228</v>
       </c>
       <c r="F117" s="4">
-        <f>LEN(E117)-LEN(SUBSTITUTE(E117,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G117" s="5">
         <v>0.34699999999999998</v>
       </c>
       <c r="H117" s="4" t="s">
@@ -6650,10 +6661,10 @@
         <v>230</v>
       </c>
       <c r="F118" s="4">
-        <f>LEN(E118)-LEN(SUBSTITUTE(E118,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G118" s="6">
+      <c r="G118" s="5">
         <v>0.002</v>
       </c>
       <c r="H118" s="4" t="s">
@@ -6677,10 +6688,10 @@
         <v>232</v>
       </c>
       <c r="F119" s="4">
-        <f>LEN(E119)-LEN(SUBSTITUTE(E119,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G119" s="5">
         <v>0.182</v>
       </c>
       <c r="H119" s="4" t="s">
@@ -6704,10 +6715,10 @@
         <v>234</v>
       </c>
       <c r="F120" s="4">
-        <f>LEN(E120)-LEN(SUBSTITUTE(E120,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G120" s="5">
         <v>0.001</v>
       </c>
       <c r="H120" s="4" t="s">
@@ -6731,10 +6742,10 @@
         <v>236</v>
       </c>
       <c r="F121" s="4">
-        <f>LEN(E121)-LEN(SUBSTITUTE(E121,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G121" s="5">
         <v>0.002</v>
       </c>
       <c r="H121" s="4" t="s">
@@ -6758,10 +6769,10 @@
         <v>238</v>
       </c>
       <c r="F122" s="4">
-        <f>LEN(E122)-LEN(SUBSTITUTE(E122,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G122" s="5">
         <v>0.070000000000000007</v>
       </c>
       <c r="H122" s="4" t="s">
@@ -6785,10 +6796,10 @@
         <v>240</v>
       </c>
       <c r="F123" s="4">
-        <f>LEN(E123)-LEN(SUBSTITUTE(E123,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G123" s="6">
+      <c r="G123" s="5">
         <v>0.042000000000000003</v>
       </c>
       <c r="H123" s="4" t="s">
@@ -6812,10 +6823,10 @@
         <v>242</v>
       </c>
       <c r="F124" s="4">
-        <f>LEN(E124)-LEN(SUBSTITUTE(E124,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G124" s="5">
         <v>0.017000000000000001</v>
       </c>
       <c r="H124" s="4" t="s">
@@ -6839,10 +6850,10 @@
         <v>244</v>
       </c>
       <c r="F125" s="4">
-        <f>LEN(E125)-LEN(SUBSTITUTE(E125,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="5">
         <v>0.002</v>
       </c>
       <c r="H125" s="4" t="s">
@@ -6866,10 +6877,10 @@
         <v>246</v>
       </c>
       <c r="F126" s="4">
-        <f>LEN(E126)-LEN(SUBSTITUTE(E126,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H126" s="4" t="s">
@@ -6893,10 +6904,10 @@
         <v>248</v>
       </c>
       <c r="F127" s="4">
-        <f>LEN(E127)-LEN(SUBSTITUTE(E127,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G127" s="6">
+      <c r="G127" s="5">
         <v>0</v>
       </c>
       <c r="H127" s="4" t="s">
@@ -6920,10 +6931,10 @@
         <v>250</v>
       </c>
       <c r="F128" s="4">
-        <f>LEN(E128)-LEN(SUBSTITUTE(E128,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G128" s="6">
+      <c r="G128" s="5">
         <v>0.016</v>
       </c>
       <c r="H128" s="4" t="s">
@@ -6947,10 +6958,10 @@
         <v>252</v>
       </c>
       <c r="F129" s="4">
-        <f>LEN(E129)-LEN(SUBSTITUTE(E129,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G129" s="6">
+      <c r="G129" s="5">
         <v>0.001</v>
       </c>
       <c r="H129" s="4" t="s">
@@ -6974,10 +6985,10 @@
         <v>254</v>
       </c>
       <c r="F130" s="4">
-        <f>LEN(E130)-LEN(SUBSTITUTE(E130,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G130" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H130" s="4" t="s">
@@ -7001,10 +7012,10 @@
         <v>256</v>
       </c>
       <c r="F131" s="4">
-        <f>LEN(E131)-LEN(SUBSTITUTE(E131,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G131" s="6">
+      <c r="G131" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H131" s="4" t="s">
@@ -7028,10 +7039,10 @@
         <v>258</v>
       </c>
       <c r="F132" s="4">
-        <f>LEN(E132)-LEN(SUBSTITUTE(E132,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G132" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H132" s="4" t="s">
@@ -7055,10 +7066,10 @@
         <v>260</v>
       </c>
       <c r="F133" s="4">
-        <f>LEN(E133)-LEN(SUBSTITUTE(E133,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G133" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H133" s="4" t="s">
@@ -7082,10 +7093,10 @@
         <v>262</v>
       </c>
       <c r="F134" s="4">
-        <f>LEN(E134)-LEN(SUBSTITUTE(E134,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G134" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H134" s="4" t="s">
@@ -7109,10 +7120,10 @@
         <v>264</v>
       </c>
       <c r="F135" s="4">
-        <f>LEN(E135)-LEN(SUBSTITUTE(E135,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G135" s="5">
         <v>0.012</v>
       </c>
       <c r="H135" s="4" t="s">
@@ -7136,10 +7147,10 @@
         <v>266</v>
       </c>
       <c r="F136" s="4">
-        <f>LEN(E136)-LEN(SUBSTITUTE(E136,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G136" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H136" s="4" t="s">
@@ -7163,10 +7174,10 @@
         <v>268</v>
       </c>
       <c r="F137" s="4">
-        <f>LEN(E137)-LEN(SUBSTITUTE(E137,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G137" s="6">
+      <c r="G137" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H137" s="4" t="s">
@@ -7190,10 +7201,10 @@
         <v>270</v>
       </c>
       <c r="F138" s="4">
-        <f>LEN(E138)-LEN(SUBSTITUTE(E138,"1",""))</f>
-        <v>2</v>
-      </c>
-      <c r="G138" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G138" s="5">
         <v>0.39600000000000002</v>
       </c>
       <c r="H138" s="4" t="s">
@@ -7217,10 +7228,10 @@
         <v>272</v>
       </c>
       <c r="F139" s="4">
-        <f>LEN(E139)-LEN(SUBSTITUTE(E139,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G139" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H139" s="4" t="s">
@@ -7244,10 +7255,10 @@
         <v>274</v>
       </c>
       <c r="F140" s="4">
-        <f>LEN(E140)-LEN(SUBSTITUTE(E140,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G140" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H140" s="4" t="s">
@@ -7271,10 +7282,10 @@
         <v>276</v>
       </c>
       <c r="F141" s="4">
-        <f>LEN(E141)-LEN(SUBSTITUTE(E141,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G141" s="6">
+      <c r="G141" s="5">
         <v>0.049000000000000002</v>
       </c>
       <c r="H141" s="4" t="s">
@@ -7298,10 +7309,10 @@
         <v>278</v>
       </c>
       <c r="F142" s="4">
-        <f>LEN(E142)-LEN(SUBSTITUTE(E142,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G142" s="5">
         <v>0.28100000000000003</v>
       </c>
       <c r="H142" s="4" t="s">
@@ -7325,10 +7336,10 @@
         <v>280</v>
       </c>
       <c r="F143" s="4">
-        <f>LEN(E143)-LEN(SUBSTITUTE(E143,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G143" s="5">
         <v>0.002</v>
       </c>
       <c r="H143" s="4" t="s">
@@ -7352,10 +7363,10 @@
         <v>282</v>
       </c>
       <c r="F144" s="4">
-        <f>LEN(E144)-LEN(SUBSTITUTE(E144,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G144" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H144" s="4" t="s">
@@ -7379,10 +7390,10 @@
         <v>284</v>
       </c>
       <c r="F145" s="4">
-        <f>LEN(E145)-LEN(SUBSTITUTE(E145,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G145" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H145" s="4" t="s">
@@ -7406,10 +7417,10 @@
         <v>286</v>
       </c>
       <c r="F146" s="4">
-        <f>LEN(E146)-LEN(SUBSTITUTE(E146,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H146" s="4" t="s">
@@ -7433,10 +7444,10 @@
         <v>288</v>
       </c>
       <c r="F147" s="4">
-        <f>LEN(E147)-LEN(SUBSTITUTE(E147,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G147" s="6">
+      <c r="G147" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H147" s="4" t="s">
@@ -7460,10 +7471,10 @@
         <v>290</v>
       </c>
       <c r="F148" s="4">
-        <f>LEN(E148)-LEN(SUBSTITUTE(E148,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G148" s="6">
+      <c r="G148" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H148" s="4" t="s">
@@ -7487,10 +7498,10 @@
         <v>292</v>
       </c>
       <c r="F149" s="4">
-        <f>LEN(E149)-LEN(SUBSTITUTE(E149,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G149" s="6">
+      <c r="G149" s="5">
         <v>0.016</v>
       </c>
       <c r="H149" s="4" t="s">
@@ -7514,10 +7525,10 @@
         <v>294</v>
       </c>
       <c r="F150" s="4">
-        <f>LEN(E150)-LEN(SUBSTITUTE(E150,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G150" s="6">
+      <c r="G150" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H150" s="4" t="s">
@@ -7541,10 +7552,10 @@
         <v>296</v>
       </c>
       <c r="F151" s="4">
-        <f>LEN(E151)-LEN(SUBSTITUTE(E151,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G151" s="6">
+      <c r="G151" s="5">
         <v>0.034000000000000002</v>
       </c>
       <c r="H151" s="4" t="s">
@@ -7568,10 +7579,10 @@
         <v>298</v>
       </c>
       <c r="F152" s="4">
-        <f>LEN(E152)-LEN(SUBSTITUTE(E152,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G152" s="5">
         <v>0.002</v>
       </c>
       <c r="H152" s="4" t="s">
@@ -7595,10 +7606,10 @@
         <v>300</v>
       </c>
       <c r="F153" s="4">
-        <f>LEN(E153)-LEN(SUBSTITUTE(E153,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G153" s="6">
+      <c r="G153" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H153" s="4" t="s">
@@ -7622,10 +7633,10 @@
         <v>302</v>
       </c>
       <c r="F154" s="4">
-        <f>LEN(E154)-LEN(SUBSTITUTE(E154,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G154" s="6">
+      <c r="G154" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H154" s="4" t="s">
@@ -7649,10 +7660,10 @@
         <v>304</v>
       </c>
       <c r="F155" s="4">
-        <f>LEN(E155)-LEN(SUBSTITUTE(E155,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G155" s="6">
+      <c r="G155" s="5">
         <v>0.050000000000000003</v>
       </c>
       <c r="H155" s="4" t="s">
@@ -7676,10 +7687,10 @@
         <v>306</v>
       </c>
       <c r="F156" s="4">
-        <f>LEN(E156)-LEN(SUBSTITUTE(E156,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G156" s="6">
+      <c r="G156" s="5">
         <v>0.376</v>
       </c>
       <c r="H156" s="4" t="s">
@@ -7703,10 +7714,10 @@
         <v>308</v>
       </c>
       <c r="F157" s="4">
-        <f>LEN(E157)-LEN(SUBSTITUTE(E157,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G157" s="5">
         <v>0.35699999999999998</v>
       </c>
       <c r="H157" s="4" t="s">
@@ -7730,10 +7741,10 @@
         <v>310</v>
       </c>
       <c r="F158" s="4">
-        <f>LEN(E158)-LEN(SUBSTITUTE(E158,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G158" s="6">
+      <c r="G158" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H158" s="4" t="s">
@@ -7757,10 +7768,10 @@
         <v>312</v>
       </c>
       <c r="F159" s="4">
-        <f>LEN(E159)-LEN(SUBSTITUTE(E159,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G159" s="6">
+      <c r="G159" s="5">
         <v>0.002</v>
       </c>
       <c r="H159" s="4" t="s">
@@ -7784,10 +7795,10 @@
         <v>314</v>
       </c>
       <c r="F160" s="4">
-        <f>LEN(E160)-LEN(SUBSTITUTE(E160,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G160" s="6">
+      <c r="G160" s="5">
         <v>0.042999999999999997</v>
       </c>
       <c r="H160" s="4" t="s">
@@ -7811,10 +7822,10 @@
         <v>316</v>
       </c>
       <c r="F161" s="4">
-        <f>LEN(E161)-LEN(SUBSTITUTE(E161,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G161" s="6">
+      <c r="G161" s="5">
         <v>0.124</v>
       </c>
       <c r="H161" s="4" t="s">
@@ -7838,10 +7849,10 @@
         <v>318</v>
       </c>
       <c r="F162" s="4">
-        <f>LEN(E162)-LEN(SUBSTITUTE(E162,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G162" s="6">
+      <c r="G162" s="5">
         <v>0.012</v>
       </c>
       <c r="H162" s="4" t="s">
@@ -7865,10 +7876,10 @@
         <v>320</v>
       </c>
       <c r="F163" s="4">
-        <f>LEN(E163)-LEN(SUBSTITUTE(E163,"1",""))</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G163" s="6">
+      <c r="G163" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H163" s="4" t="s">
@@ -7892,10 +7903,10 @@
         <v>322</v>
       </c>
       <c r="F164" s="4">
-        <f>LEN(E164)-LEN(SUBSTITUTE(E164,"1",""))</f>
+        <f t="shared" ref="F164:F227" si="4">LEN(E164)-LEN(SUBSTITUTE(E164,"1",""))</f>
         <v>8</v>
       </c>
-      <c r="G164" s="6">
+      <c r="G164" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H164" s="4" t="s">
@@ -7919,10 +7930,10 @@
         <v>324</v>
       </c>
       <c r="F165" s="4">
-        <f>LEN(E165)-LEN(SUBSTITUTE(E165,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G165" s="6">
+      <c r="G165" s="5">
         <v>1.6619999999999999</v>
       </c>
       <c r="H165" s="4" t="s">
@@ -7946,10 +7957,10 @@
         <v>326</v>
       </c>
       <c r="F166" s="4">
-        <f>LEN(E166)-LEN(SUBSTITUTE(E166,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="G166" s="6">
+      <c r="G166" s="5">
         <v>0.002</v>
       </c>
       <c r="H166" s="4" t="s">
@@ -7973,10 +7984,10 @@
         <v>328</v>
       </c>
       <c r="F167" s="4">
-        <f>LEN(E167)-LEN(SUBSTITUTE(E167,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="G167" s="6">
+      <c r="G167" s="5">
         <v>0.002</v>
       </c>
       <c r="H167" s="4" t="s">
@@ -8000,10 +8011,10 @@
         <v>330</v>
       </c>
       <c r="F168" s="4">
-        <f>LEN(E168)-LEN(SUBSTITUTE(E168,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G168" s="6">
+      <c r="G168" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H168" s="4" t="s">
@@ -8027,10 +8038,10 @@
         <v>332</v>
       </c>
       <c r="F169" s="4">
-        <f>LEN(E169)-LEN(SUBSTITUTE(E169,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G169" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H169" s="4" t="s">
@@ -8054,10 +8065,10 @@
         <v>334</v>
       </c>
       <c r="F170" s="4">
-        <f>LEN(E170)-LEN(SUBSTITUTE(E170,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G170" s="5">
         <v>0.01</v>
       </c>
       <c r="H170" s="4" t="s">
@@ -8081,10 +8092,10 @@
         <v>336</v>
       </c>
       <c r="F171" s="4">
-        <f>LEN(E171)-LEN(SUBSTITUTE(E171,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G171" s="5">
         <v>0.002</v>
       </c>
       <c r="H171" s="4" t="s">
@@ -8108,10 +8119,10 @@
         <v>338</v>
       </c>
       <c r="F172" s="4">
-        <f>LEN(E172)-LEN(SUBSTITUTE(E172,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G172" s="5">
         <v>0.001</v>
       </c>
       <c r="H172" s="4" t="s">
@@ -8135,10 +8146,10 @@
         <v>340</v>
       </c>
       <c r="F173" s="4">
-        <f>LEN(E173)-LEN(SUBSTITUTE(E173,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G173" s="5">
         <v>0.024</v>
       </c>
       <c r="H173" s="4" t="s">
@@ -8162,10 +8173,10 @@
         <v>342</v>
       </c>
       <c r="F174" s="4">
-        <f>LEN(E174)-LEN(SUBSTITUTE(E174,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G174" s="6">
+      <c r="G174" s="5">
         <v>0.002</v>
       </c>
       <c r="H174" s="4" t="s">
@@ -8189,10 +8200,10 @@
         <v>344</v>
       </c>
       <c r="F175" s="4">
-        <f>LEN(E175)-LEN(SUBSTITUTE(E175,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G175" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H175" s="4" t="s">
@@ -8216,10 +8227,10 @@
         <v>346</v>
       </c>
       <c r="F176" s="4">
-        <f>LEN(E176)-LEN(SUBSTITUTE(E176,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G176" s="5">
         <v>0.22900000000000001</v>
       </c>
       <c r="H176" s="4" t="s">
@@ -8243,10 +8254,10 @@
         <v>348</v>
       </c>
       <c r="F177" s="4">
-        <f>LEN(E177)-LEN(SUBSTITUTE(E177,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G177" s="5">
         <v>0.016</v>
       </c>
       <c r="H177" s="4" t="s">
@@ -8270,10 +8281,10 @@
         <v>350</v>
       </c>
       <c r="F178" s="4">
-        <f>LEN(E178)-LEN(SUBSTITUTE(E178,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G178" s="5">
         <v>0.001</v>
       </c>
       <c r="H178" s="4" t="s">
@@ -8297,10 +8308,10 @@
         <v>352</v>
       </c>
       <c r="F179" s="4">
-        <f>LEN(E179)-LEN(SUBSTITUTE(E179,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G179" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H179" s="4" t="s">
@@ -8324,10 +8335,10 @@
         <v>354</v>
       </c>
       <c r="F180" s="4">
-        <f>LEN(E180)-LEN(SUBSTITUTE(E180,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G180" s="6">
+      <c r="G180" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H180" s="4" t="s">
@@ -8351,10 +8362,10 @@
         <v>356</v>
       </c>
       <c r="F181" s="4">
-        <f>LEN(E181)-LEN(SUBSTITUTE(E181,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G181" s="6">
+      <c r="G181" s="5">
         <v>0.002</v>
       </c>
       <c r="H181" s="4" t="s">
@@ -8378,10 +8389,10 @@
         <v>358</v>
       </c>
       <c r="F182" s="4">
-        <f>LEN(E182)-LEN(SUBSTITUTE(E182,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G182" s="6">
+      <c r="G182" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H182" s="4" t="s">
@@ -8405,10 +8416,10 @@
         <v>360</v>
       </c>
       <c r="F183" s="4">
-        <f>LEN(E183)-LEN(SUBSTITUTE(E183,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G183" s="6">
+      <c r="G183" s="5">
         <v>0.874</v>
       </c>
       <c r="H183" s="4" t="s">
@@ -8432,10 +8443,10 @@
         <v>362</v>
       </c>
       <c r="F184" s="4">
-        <f>LEN(E184)-LEN(SUBSTITUTE(E184,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G184" s="6">
+      <c r="G184" s="5">
         <v>0.002</v>
       </c>
       <c r="H184" s="4" t="s">
@@ -8459,10 +8470,10 @@
         <v>364</v>
       </c>
       <c r="F185" s="4">
-        <f>LEN(E185)-LEN(SUBSTITUTE(E185,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G185" s="6">
+      <c r="G185" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H185" s="4" t="s">
@@ -8486,10 +8497,10 @@
         <v>366</v>
       </c>
       <c r="F186" s="4">
-        <f>LEN(E186)-LEN(SUBSTITUTE(E186,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="G186" s="6">
+      <c r="G186" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H186" s="4" t="s">
@@ -8513,10 +8524,10 @@
         <v>368</v>
       </c>
       <c r="F187" s="4">
-        <f>LEN(E187)-LEN(SUBSTITUTE(E187,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G187" s="6">
+      <c r="G187" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H187" s="4" t="s">
@@ -8540,10 +8551,10 @@
         <v>370</v>
       </c>
       <c r="F188" s="4">
-        <f>LEN(E188)-LEN(SUBSTITUTE(E188,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G188" s="6">
+      <c r="G188" s="5">
         <v>0.017000000000000001</v>
       </c>
       <c r="H188" s="4" t="s">
@@ -8567,10 +8578,10 @@
         <v>372</v>
       </c>
       <c r="F189" s="4">
-        <f>LEN(E189)-LEN(SUBSTITUTE(E189,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G189" s="6">
+      <c r="G189" s="5">
         <v>0.059999999999999998</v>
       </c>
       <c r="H189" s="4" t="s">
@@ -8594,10 +8605,10 @@
         <v>374</v>
       </c>
       <c r="F190" s="4">
-        <f>LEN(E190)-LEN(SUBSTITUTE(E190,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G190" s="6">
+      <c r="G190" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H190" s="4" t="s">
@@ -8621,10 +8632,10 @@
         <v>376</v>
       </c>
       <c r="F191" s="4">
-        <f>LEN(E191)-LEN(SUBSTITUTE(E191,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G191" s="6">
+      <c r="G191" s="5">
         <v>1.9690000000000001</v>
       </c>
       <c r="H191" s="4" t="s">
@@ -8648,10 +8659,10 @@
         <v>378</v>
       </c>
       <c r="F192" s="4">
-        <f>LEN(E192)-LEN(SUBSTITUTE(E192,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G192" s="5">
         <v>0.014999999999999999</v>
       </c>
       <c r="H192" s="4" t="s">
@@ -8675,10 +8686,10 @@
         <v>380</v>
       </c>
       <c r="F193" s="4">
-        <f>LEN(E193)-LEN(SUBSTITUTE(E193,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G193" s="6">
+      <c r="G193" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H193" s="4" t="s">
@@ -8702,10 +8713,10 @@
         <v>382</v>
       </c>
       <c r="F194" s="4">
-        <f>LEN(E194)-LEN(SUBSTITUTE(E194,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G194" s="6">
+      <c r="G194" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H194" s="4" t="s">
@@ -8729,10 +8740,10 @@
         <v>384</v>
       </c>
       <c r="F195" s="4">
-        <f>LEN(E195)-LEN(SUBSTITUTE(E195,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G195" s="6">
+      <c r="G195" s="5">
         <v>0.002</v>
       </c>
       <c r="H195" s="4" t="s">
@@ -8756,10 +8767,10 @@
         <v>386</v>
       </c>
       <c r="F196" s="4">
-        <f>LEN(E196)-LEN(SUBSTITUTE(E196,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G196" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H196" s="4" t="s">
@@ -8783,10 +8794,10 @@
         <v>388</v>
       </c>
       <c r="F197" s="4">
-        <f>LEN(E197)-LEN(SUBSTITUTE(E197,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G197" s="6">
+      <c r="G197" s="5">
         <v>0.001</v>
       </c>
       <c r="H197" s="4" t="s">
@@ -8810,10 +8821,10 @@
         <v>390</v>
       </c>
       <c r="F198" s="4">
-        <f>LEN(E198)-LEN(SUBSTITUTE(E198,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G198" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H198" s="4" t="s">
@@ -8837,10 +8848,10 @@
         <v>392</v>
       </c>
       <c r="F199" s="4">
-        <f>LEN(E199)-LEN(SUBSTITUTE(E199,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G199" s="6">
+      <c r="G199" s="5">
         <v>0.016</v>
       </c>
       <c r="H199" s="4" t="s">
@@ -8864,10 +8875,10 @@
         <v>394</v>
       </c>
       <c r="F200" s="4">
-        <f>LEN(E200)-LEN(SUBSTITUTE(E200,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G200" s="6">
+      <c r="G200" s="5">
         <v>0.031</v>
       </c>
       <c r="H200" s="4" t="s">
@@ -8891,10 +8902,10 @@
         <v>396</v>
       </c>
       <c r="F201" s="4">
-        <f>LEN(E201)-LEN(SUBSTITUTE(E201,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G201" s="6">
+      <c r="G201" s="5">
         <v>0.38400000000000001</v>
       </c>
       <c r="H201" s="4" t="s">
@@ -8918,10 +8929,10 @@
         <v>398</v>
       </c>
       <c r="F202" s="4">
-        <f>LEN(E202)-LEN(SUBSTITUTE(E202,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G202" s="6">
+      <c r="G202" s="5">
         <v>0.037999999999999999</v>
       </c>
       <c r="H202" s="4" t="s">
@@ -8945,10 +8956,10 @@
         <v>400</v>
       </c>
       <c r="F203" s="4">
-        <f>LEN(E203)-LEN(SUBSTITUTE(E203,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G203" s="6">
+      <c r="G203" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H203" s="4" t="s">
@@ -8972,10 +8983,10 @@
         <v>402</v>
       </c>
       <c r="F204" s="4">
-        <f>LEN(E204)-LEN(SUBSTITUTE(E204,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G204" s="6">
+      <c r="G204" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H204" s="4" t="s">
@@ -8999,10 +9010,10 @@
         <v>404</v>
       </c>
       <c r="F205" s="4">
-        <f>LEN(E205)-LEN(SUBSTITUTE(E205,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G205" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H205" s="4" t="s">
@@ -9026,10 +9037,10 @@
         <v>406</v>
       </c>
       <c r="F206" s="4">
-        <f>LEN(E206)-LEN(SUBSTITUTE(E206,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G206" s="6">
+      <c r="G206" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H206" s="4" t="s">
@@ -9053,10 +9064,10 @@
         <v>408</v>
       </c>
       <c r="F207" s="4">
-        <f>LEN(E207)-LEN(SUBSTITUTE(E207,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G207" s="6">
+      <c r="G207" s="5">
         <v>0.94099999999999995</v>
       </c>
       <c r="H207" s="4" t="s">
@@ -9080,10 +9091,10 @@
         <v>410</v>
       </c>
       <c r="F208" s="4">
-        <f>LEN(E208)-LEN(SUBSTITUTE(E208,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="G208" s="6">
+      <c r="G208" s="5">
         <v>0.001</v>
       </c>
       <c r="H208" s="4" t="s">
@@ -9107,10 +9118,10 @@
         <v>412</v>
       </c>
       <c r="F209" s="4">
-        <f>LEN(E209)-LEN(SUBSTITUTE(E209,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G209" s="6">
+      <c r="G209" s="5">
         <v>0.02</v>
       </c>
       <c r="H209" s="4" t="s">
@@ -9134,10 +9145,10 @@
         <v>414</v>
       </c>
       <c r="F210" s="4">
-        <f>LEN(E210)-LEN(SUBSTITUTE(E210,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G210" s="6">
+      <c r="G210" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H210" s="4" t="s">
@@ -9161,10 +9172,10 @@
         <v>416</v>
       </c>
       <c r="F211" s="4">
-        <f>LEN(E211)-LEN(SUBSTITUTE(E211,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G211" s="6">
+      <c r="G211" s="5">
         <v>0.24299999999999999</v>
       </c>
       <c r="H211" s="4" t="s">
@@ -9188,10 +9199,10 @@
         <v>418</v>
       </c>
       <c r="F212" s="4">
-        <f>LEN(E212)-LEN(SUBSTITUTE(E212,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G212" s="6">
+      <c r="G212" s="5">
         <v>0.23599999999999999</v>
       </c>
       <c r="H212" s="4" t="s">
@@ -9215,10 +9226,10 @@
         <v>420</v>
       </c>
       <c r="F213" s="4">
-        <f>LEN(E213)-LEN(SUBSTITUTE(E213,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G213" s="6">
+      <c r="G213" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H213" s="4" t="s">
@@ -9242,10 +9253,10 @@
         <v>422</v>
       </c>
       <c r="F214" s="4">
-        <f>LEN(E214)-LEN(SUBSTITUTE(E214,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G214" s="6">
+      <c r="G214" s="5">
         <v>0.029000000000000001</v>
       </c>
       <c r="H214" s="4" t="s">
@@ -9269,10 +9280,10 @@
         <v>424</v>
       </c>
       <c r="F215" s="4">
-        <f>LEN(E215)-LEN(SUBSTITUTE(E215,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="G215" s="6">
+      <c r="G215" s="5">
         <v>0.001</v>
       </c>
       <c r="H215" s="4" t="s">
@@ -9296,10 +9307,10 @@
         <v>426</v>
       </c>
       <c r="F216" s="4">
-        <f>LEN(E216)-LEN(SUBSTITUTE(E216,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G216" s="6">
+      <c r="G216" s="5">
         <v>0.36299999999999999</v>
       </c>
       <c r="H216" s="4" t="s">
@@ -9323,10 +9334,10 @@
         <v>428</v>
       </c>
       <c r="F217" s="4">
-        <f>LEN(E217)-LEN(SUBSTITUTE(E217,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G217" s="6">
+      <c r="G217" s="5">
         <v>0.18099999999999999</v>
       </c>
       <c r="H217" s="4" t="s">
@@ -9350,10 +9361,10 @@
         <v>430</v>
       </c>
       <c r="F218" s="4">
-        <f>LEN(E218)-LEN(SUBSTITUTE(E218,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G218" s="6">
+      <c r="G218" s="5">
         <v>0.002</v>
       </c>
       <c r="H218" s="4" t="s">
@@ -9377,10 +9388,10 @@
         <v>432</v>
       </c>
       <c r="F219" s="4">
-        <f>LEN(E219)-LEN(SUBSTITUTE(E219,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G219" s="6">
+      <c r="G219" s="5">
         <v>0.002</v>
       </c>
       <c r="H219" s="4" t="s">
@@ -9404,10 +9415,10 @@
         <v>434</v>
       </c>
       <c r="F220" s="4">
-        <f>LEN(E220)-LEN(SUBSTITUTE(E220,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G220" s="6">
+      <c r="G220" s="5">
         <v>0.002</v>
       </c>
       <c r="H220" s="4" t="s">
@@ -9431,10 +9442,10 @@
         <v>436</v>
       </c>
       <c r="F221" s="4">
-        <f>LEN(E221)-LEN(SUBSTITUTE(E221,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G221" s="6">
+      <c r="G221" s="5">
         <v>0.002</v>
       </c>
       <c r="H221" s="4" t="s">
@@ -9458,10 +9469,10 @@
         <v>438</v>
       </c>
       <c r="F222" s="4">
-        <f>LEN(E222)-LEN(SUBSTITUTE(E222,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G222" s="6">
+      <c r="G222" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H222" s="4" t="s">
@@ -9485,10 +9496,10 @@
         <v>440</v>
       </c>
       <c r="F223" s="4">
-        <f>LEN(E223)-LEN(SUBSTITUTE(E223,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="G223" s="6">
+      <c r="G223" s="5">
         <v>0.002</v>
       </c>
       <c r="H223" s="4" t="s">
@@ -9512,10 +9523,10 @@
         <v>442</v>
       </c>
       <c r="F224" s="4">
-        <f>LEN(E224)-LEN(SUBSTITUTE(E224,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G224" s="6">
+      <c r="G224" s="5">
         <v>0.002</v>
       </c>
       <c r="H224" s="4" t="s">
@@ -9539,10 +9550,10 @@
         <v>444</v>
       </c>
       <c r="F225" s="4">
-        <f>LEN(E225)-LEN(SUBSTITUTE(E225,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G225" s="6">
+      <c r="G225" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H225" s="4" t="s">
@@ -9566,10 +9577,10 @@
         <v>446</v>
       </c>
       <c r="F226" s="4">
-        <f>LEN(E226)-LEN(SUBSTITUTE(E226,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G226" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H226" s="4" t="s">
@@ -9593,10 +9604,10 @@
         <v>448</v>
       </c>
       <c r="F227" s="4">
-        <f>LEN(E227)-LEN(SUBSTITUTE(E227,"1",""))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G227" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H227" s="4" t="s">
@@ -9620,10 +9631,10 @@
         <v>450</v>
       </c>
       <c r="F228" s="4">
-        <f>LEN(E228)-LEN(SUBSTITUTE(E228,"1",""))</f>
+        <f t="shared" ref="F228:F291" si="5">LEN(E228)-LEN(SUBSTITUTE(E228,"1",""))</f>
         <v>7</v>
       </c>
-      <c r="G228" s="6">
+      <c r="G228" s="5">
         <v>0.01</v>
       </c>
       <c r="H228" s="4" t="s">
@@ -9647,10 +9658,10 @@
         <v>452</v>
       </c>
       <c r="F229" s="4">
-        <f>LEN(E229)-LEN(SUBSTITUTE(E229,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G229" s="6">
+      <c r="G229" s="5">
         <v>0.002</v>
       </c>
       <c r="H229" s="4" t="s">
@@ -9674,10 +9685,10 @@
         <v>454</v>
       </c>
       <c r="F230" s="4">
-        <f>LEN(E230)-LEN(SUBSTITUTE(E230,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G230" s="6">
+      <c r="G230" s="5">
         <v>0.010999999999999999</v>
       </c>
       <c r="H230" s="4" t="s">
@@ -9701,10 +9712,10 @@
         <v>456</v>
       </c>
       <c r="F231" s="4">
-        <f>LEN(E231)-LEN(SUBSTITUTE(E231,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G231" s="6">
+      <c r="G231" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H231" s="4" t="s">
@@ -9728,10 +9739,10 @@
         <v>458</v>
       </c>
       <c r="F232" s="4">
-        <f>LEN(E232)-LEN(SUBSTITUTE(E232,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G232" s="6">
+      <c r="G232" s="5">
         <v>0.002</v>
       </c>
       <c r="H232" s="4" t="s">
@@ -9755,10 +9766,10 @@
         <v>460</v>
       </c>
       <c r="F233" s="4">
-        <f>LEN(E233)-LEN(SUBSTITUTE(E233,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="G233" s="6">
+      <c r="G233" s="5">
         <v>0.001</v>
       </c>
       <c r="H233" s="4" t="s">
@@ -9782,10 +9793,10 @@
         <v>462</v>
       </c>
       <c r="F234" s="4">
-        <f>LEN(E234)-LEN(SUBSTITUTE(E234,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G234" s="6">
+      <c r="G234" s="5">
         <v>0.002</v>
       </c>
       <c r="H234" s="4" t="s">
@@ -9809,10 +9820,10 @@
         <v>464</v>
       </c>
       <c r="F235" s="4">
-        <f>LEN(E235)-LEN(SUBSTITUTE(E235,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G235" s="6">
+      <c r="G235" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H235" s="4" t="s">
@@ -9836,10 +9847,10 @@
         <v>466</v>
       </c>
       <c r="F236" s="4">
-        <f>LEN(E236)-LEN(SUBSTITUTE(E236,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G236" s="6">
+      <c r="G236" s="5">
         <v>0.035000000000000003</v>
       </c>
       <c r="H236" s="4" t="s">
@@ -9863,10 +9874,10 @@
         <v>468</v>
       </c>
       <c r="F237" s="4">
-        <f>LEN(E237)-LEN(SUBSTITUTE(E237,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G237" s="6">
+      <c r="G237" s="5">
         <v>0.001</v>
       </c>
       <c r="H237" s="4" t="s">
@@ -9890,10 +9901,10 @@
         <v>470</v>
       </c>
       <c r="F238" s="4">
-        <f>LEN(E238)-LEN(SUBSTITUTE(E238,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G238" s="6">
+      <c r="G238" s="5">
         <v>0.002</v>
       </c>
       <c r="H238" s="4" t="s">
@@ -9917,10 +9928,10 @@
         <v>472</v>
       </c>
       <c r="F239" s="4">
-        <f>LEN(E239)-LEN(SUBSTITUTE(E239,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G239" s="6">
+      <c r="G239" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H239" s="4" t="s">
@@ -9944,10 +9955,10 @@
         <v>474</v>
       </c>
       <c r="F240" s="4">
-        <f>LEN(E240)-LEN(SUBSTITUTE(E240,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G240" s="6">
+      <c r="G240" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H240" s="4" t="s">
@@ -9971,10 +9982,10 @@
         <v>476</v>
       </c>
       <c r="F241" s="4">
-        <f>LEN(E241)-LEN(SUBSTITUTE(E241,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G241" s="6">
+      <c r="G241" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H241" s="4" t="s">
@@ -9998,10 +10009,10 @@
         <v>478</v>
       </c>
       <c r="F242" s="4">
-        <f>LEN(E242)-LEN(SUBSTITUTE(E242,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G242" s="6">
+      <c r="G242" s="5">
         <v>0.050999999999999997</v>
       </c>
       <c r="H242" s="4" t="s">
@@ -10025,10 +10036,10 @@
         <v>480</v>
       </c>
       <c r="F243" s="4">
-        <f>LEN(E243)-LEN(SUBSTITUTE(E243,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G243" s="6">
+      <c r="G243" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H243" s="4" t="s">
@@ -10052,10 +10063,10 @@
         <v>482</v>
       </c>
       <c r="F244" s="4">
-        <f>LEN(E244)-LEN(SUBSTITUTE(E244,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G244" s="6">
+      <c r="G244" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H244" s="4" t="s">
@@ -10079,10 +10090,10 @@
         <v>484</v>
       </c>
       <c r="F245" s="4">
-        <f>LEN(E245)-LEN(SUBSTITUTE(E245,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G245" s="6">
+      <c r="G245" s="5">
         <v>0.001</v>
       </c>
       <c r="H245" s="4" t="s">
@@ -10106,10 +10117,10 @@
         <v>486</v>
       </c>
       <c r="F246" s="4">
-        <f>LEN(E246)-LEN(SUBSTITUTE(E246,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="G246" s="6">
+      <c r="G246" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H246" s="4" t="s">
@@ -10133,10 +10144,10 @@
         <v>488</v>
       </c>
       <c r="F247" s="4">
-        <f>LEN(E247)-LEN(SUBSTITUTE(E247,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G247" s="6">
+      <c r="G247" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H247" s="4" t="s">
@@ -10160,10 +10171,10 @@
         <v>490</v>
       </c>
       <c r="F248" s="4">
-        <f>LEN(E248)-LEN(SUBSTITUTE(E248,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G248" s="6">
+      <c r="G248" s="5">
         <v>1.671</v>
       </c>
       <c r="H248" s="4" t="s">
@@ -10187,10 +10198,10 @@
         <v>492</v>
       </c>
       <c r="F249" s="4">
-        <f>LEN(E249)-LEN(SUBSTITUTE(E249,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G249" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H249" s="4" t="s">
@@ -10214,10 +10225,10 @@
         <v>494</v>
       </c>
       <c r="F250" s="4">
-        <f>LEN(E250)-LEN(SUBSTITUTE(E250,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G250" s="6">
+      <c r="G250" s="5">
         <v>0.002</v>
       </c>
       <c r="H250" s="4" t="s">
@@ -10241,10 +10252,10 @@
         <v>496</v>
       </c>
       <c r="F251" s="4">
-        <f>LEN(E251)-LEN(SUBSTITUTE(E251,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G251" s="6">
+      <c r="G251" s="5">
         <v>0.063</v>
       </c>
       <c r="H251" s="4" t="s">
@@ -10268,10 +10279,10 @@
         <v>498</v>
       </c>
       <c r="F252" s="4">
-        <f>LEN(E252)-LEN(SUBSTITUTE(E252,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G252" s="6">
+      <c r="G252" s="5">
         <v>0.002</v>
       </c>
       <c r="H252" s="4" t="s">
@@ -10295,10 +10306,10 @@
         <v>500</v>
       </c>
       <c r="F253" s="4">
-        <f>LEN(E253)-LEN(SUBSTITUTE(E253,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G253" s="6">
+      <c r="G253" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H253" s="4" t="s">
@@ -10322,10 +10333,10 @@
         <v>502</v>
       </c>
       <c r="F254" s="4">
-        <f>LEN(E254)-LEN(SUBSTITUTE(E254,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G254" s="6">
+      <c r="G254" s="5">
         <v>0.002</v>
       </c>
       <c r="H254" s="4" t="s">
@@ -10349,10 +10360,10 @@
         <v>504</v>
       </c>
       <c r="F255" s="4">
-        <f>LEN(E255)-LEN(SUBSTITUTE(E255,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G255" s="6">
+      <c r="G255" s="5">
         <v>0.45700000000000002</v>
       </c>
       <c r="H255" s="4" t="s">
@@ -10376,10 +10387,10 @@
         <v>506</v>
       </c>
       <c r="F256" s="4">
-        <f>LEN(E256)-LEN(SUBSTITUTE(E256,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G256" s="6">
+      <c r="G256" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H256" s="4" t="s">
@@ -10403,10 +10414,10 @@
         <v>508</v>
       </c>
       <c r="F257" s="4">
-        <f>LEN(E257)-LEN(SUBSTITUTE(E257,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G257" s="6">
+      <c r="G257" s="5">
         <v>0.002</v>
       </c>
       <c r="H257" s="4" t="s">
@@ -10430,10 +10441,10 @@
         <v>510</v>
       </c>
       <c r="F258" s="4">
-        <f>LEN(E258)-LEN(SUBSTITUTE(E258,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G258" s="6">
+      <c r="G258" s="5">
         <v>0.001</v>
       </c>
       <c r="H258" s="4" t="s">
@@ -10457,10 +10468,10 @@
         <v>512</v>
       </c>
       <c r="F259" s="4">
-        <f>LEN(E259)-LEN(SUBSTITUTE(E259,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G259" s="6">
+      <c r="G259" s="5">
         <v>0.043999999999999997</v>
       </c>
       <c r="H259" s="4" t="s">
@@ -10484,10 +10495,10 @@
         <v>514</v>
       </c>
       <c r="F260" s="4">
-        <f>LEN(E260)-LEN(SUBSTITUTE(E260,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G260" s="6">
+      <c r="G260" s="5">
         <v>0.39100000000000001</v>
       </c>
       <c r="H260" s="4" t="s">
@@ -10511,10 +10522,10 @@
         <v>516</v>
       </c>
       <c r="F261" s="4">
-        <f>LEN(E261)-LEN(SUBSTITUTE(E261,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G261" s="6">
+      <c r="G261" s="5">
         <v>0.031</v>
       </c>
       <c r="H261" s="4" t="s">
@@ -10538,10 +10549,10 @@
         <v>518</v>
       </c>
       <c r="F262" s="4">
-        <f>LEN(E262)-LEN(SUBSTITUTE(E262,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G262" s="6">
+      <c r="G262" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H262" s="4" t="s">
@@ -10565,10 +10576,10 @@
         <v>520</v>
       </c>
       <c r="F263" s="4">
-        <f>LEN(E263)-LEN(SUBSTITUTE(E263,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G263" s="6">
+      <c r="G263" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -10592,10 +10603,10 @@
         <v>522</v>
       </c>
       <c r="F264" s="4">
-        <f>LEN(E264)-LEN(SUBSTITUTE(E264,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G264" s="6">
+      <c r="G264" s="5">
         <v>0.001</v>
       </c>
       <c r="H264" s="4" t="s">
@@ -10619,10 +10630,10 @@
         <v>524</v>
       </c>
       <c r="F265" s="4">
-        <f>LEN(E265)-LEN(SUBSTITUTE(E265,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="G265" s="6">
+      <c r="G265" s="5">
         <v>0.16</v>
       </c>
       <c r="H265" s="4" t="s">
@@ -10646,10 +10657,10 @@
         <v>526</v>
       </c>
       <c r="F266" s="4">
-        <f>LEN(E266)-LEN(SUBSTITUTE(E266,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="G266" s="6">
+      <c r="G266" s="5">
         <v>0.002</v>
       </c>
       <c r="H266" s="4" t="s">
@@ -10673,10 +10684,10 @@
         <v>528</v>
       </c>
       <c r="F267" s="4">
-        <f>LEN(E267)-LEN(SUBSTITUTE(E267,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G267" s="6">
+      <c r="G267" s="5">
         <v>0.001</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -10700,10 +10711,10 @@
         <v>530</v>
       </c>
       <c r="F268" s="4">
-        <f>LEN(E268)-LEN(SUBSTITUTE(E268,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G268" s="6">
+      <c r="G268" s="5">
         <v>0.46600000000000003</v>
       </c>
       <c r="H268" s="4" t="s">
@@ -10727,10 +10738,10 @@
         <v>532</v>
       </c>
       <c r="F269" s="4">
-        <f>LEN(E269)-LEN(SUBSTITUTE(E269,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G269" s="6">
+      <c r="G269" s="5">
         <v>0.024</v>
       </c>
       <c r="H269" s="4" t="s">
@@ -10754,10 +10765,10 @@
         <v>534</v>
       </c>
       <c r="F270" s="4">
-        <f>LEN(E270)-LEN(SUBSTITUTE(E270,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G270" s="6">
+      <c r="G270" s="5">
         <v>0.001</v>
       </c>
       <c r="H270" s="4" t="s">
@@ -10781,10 +10792,10 @@
         <v>536</v>
       </c>
       <c r="F271" s="4">
-        <f>LEN(E271)-LEN(SUBSTITUTE(E271,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G271" s="6">
+      <c r="G271" s="5">
         <v>0.039</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -10808,10 +10819,10 @@
         <v>538</v>
       </c>
       <c r="F272" s="4">
-        <f>LEN(E272)-LEN(SUBSTITUTE(E272,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="G272" s="6">
+      <c r="G272" s="5">
         <v>0.19900000000000001</v>
       </c>
       <c r="H272" s="4" t="s">
@@ -10835,10 +10846,10 @@
         <v>540</v>
       </c>
       <c r="F273" s="4">
-        <f>LEN(E273)-LEN(SUBSTITUTE(E273,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G273" s="6">
+      <c r="G273" s="5">
         <v>0.092999999999999999</v>
       </c>
       <c r="H273" s="4" t="s">
@@ -10862,10 +10873,10 @@
         <v>542</v>
       </c>
       <c r="F274" s="4">
-        <f>LEN(E274)-LEN(SUBSTITUTE(E274,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G274" s="6">
+      <c r="G274" s="5">
         <v>0.001</v>
       </c>
       <c r="H274" s="4" t="s">
@@ -10889,10 +10900,10 @@
         <v>544</v>
       </c>
       <c r="F275" s="4">
-        <f>LEN(E275)-LEN(SUBSTITUTE(E275,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G275" s="6">
+      <c r="G275" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H275" s="4" t="s">
@@ -10916,10 +10927,10 @@
         <v>546</v>
       </c>
       <c r="F276" s="4">
-        <f>LEN(E276)-LEN(SUBSTITUTE(E276,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G276" s="6">
+      <c r="G276" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H276" s="4" t="s">
@@ -10943,10 +10954,10 @@
         <v>548</v>
       </c>
       <c r="F277" s="4">
-        <f>LEN(E277)-LEN(SUBSTITUTE(E277,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="G277" s="6">
+      <c r="G277" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H277" s="4" t="s">
@@ -10970,10 +10981,10 @@
         <v>550</v>
       </c>
       <c r="F278" s="4">
-        <f>LEN(E278)-LEN(SUBSTITUTE(E278,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G278" s="6">
+      <c r="G278" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H278" s="4" t="s">
@@ -10997,10 +11008,10 @@
         <v>552</v>
       </c>
       <c r="F279" s="4">
-        <f>LEN(E279)-LEN(SUBSTITUTE(E279,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G279" s="6">
+      <c r="G279" s="5">
         <v>0.029999999999999999</v>
       </c>
       <c r="H279" s="4" t="s">
@@ -11024,10 +11035,10 @@
         <v>554</v>
       </c>
       <c r="F280" s="4">
-        <f>LEN(E280)-LEN(SUBSTITUTE(E280,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G280" s="6">
+      <c r="G280" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H280" s="4" t="s">
@@ -11051,10 +11062,10 @@
         <v>556</v>
       </c>
       <c r="F281" s="4">
-        <f>LEN(E281)-LEN(SUBSTITUTE(E281,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G281" s="6">
+      <c r="G281" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H281" s="4" t="s">
@@ -11078,10 +11089,10 @@
         <v>558</v>
       </c>
       <c r="F282" s="4">
-        <f>LEN(E282)-LEN(SUBSTITUTE(E282,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G282" s="6">
+      <c r="G282" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H282" s="4" t="s">
@@ -11105,10 +11116,10 @@
         <v>560</v>
       </c>
       <c r="F283" s="4">
-        <f>LEN(E283)-LEN(SUBSTITUTE(E283,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G283" s="6">
+      <c r="G283" s="5">
         <v>0.002</v>
       </c>
       <c r="H283" s="4" t="s">
@@ -11132,10 +11143,10 @@
         <v>562</v>
       </c>
       <c r="F284" s="4">
-        <f>LEN(E284)-LEN(SUBSTITUTE(E284,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="G284" s="6">
+      <c r="G284" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H284" s="4" t="s">
@@ -11159,10 +11170,10 @@
         <v>564</v>
       </c>
       <c r="F285" s="4">
-        <f>LEN(E285)-LEN(SUBSTITUTE(E285,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="G285" s="6">
+      <c r="G285" s="5">
         <v>0.11</v>
       </c>
       <c r="H285" s="4" t="s">
@@ -11186,10 +11197,10 @@
         <v>566</v>
       </c>
       <c r="F286" s="4">
-        <f>LEN(E286)-LEN(SUBSTITUTE(E286,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="G286" s="6">
+      <c r="G286" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H286" s="4" t="s">
@@ -11213,10 +11224,10 @@
         <v>568</v>
       </c>
       <c r="F287" s="4">
-        <f>LEN(E287)-LEN(SUBSTITUTE(E287,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G287" s="6">
+      <c r="G287" s="5">
         <v>0.037999999999999999</v>
       </c>
       <c r="H287" s="4" t="s">
@@ -11240,10 +11251,10 @@
         <v>570</v>
       </c>
       <c r="F288" s="4">
-        <f>LEN(E288)-LEN(SUBSTITUTE(E288,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="G288" s="6">
+      <c r="G288" s="5">
         <v>0.012999999999999999</v>
       </c>
       <c r="H288" s="4" t="s">
@@ -11267,10 +11278,10 @@
         <v>572</v>
       </c>
       <c r="F289" s="4">
-        <f>LEN(E289)-LEN(SUBSTITUTE(E289,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="G289" s="6">
+      <c r="G289" s="5">
         <v>0.002</v>
       </c>
       <c r="H289" s="4" t="s">
@@ -11294,10 +11305,10 @@
         <v>574</v>
       </c>
       <c r="F290" s="4">
-        <f>LEN(E290)-LEN(SUBSTITUTE(E290,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="G290" s="6">
+      <c r="G290" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H290" s="4" t="s">
@@ -11321,10 +11332,10 @@
         <v>576</v>
       </c>
       <c r="F291" s="4">
-        <f>LEN(E291)-LEN(SUBSTITUTE(E291,"1",""))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G291" s="6">
+      <c r="G291" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H291" s="4" t="s">
@@ -11348,10 +11359,10 @@
         <v>578</v>
       </c>
       <c r="F292" s="4">
-        <f>LEN(E292)-LEN(SUBSTITUTE(E292,"1",""))</f>
+        <f t="shared" ref="F292:F355" si="6">LEN(E292)-LEN(SUBSTITUTE(E292,"1",""))</f>
         <v>13</v>
       </c>
-      <c r="G292" s="6">
+      <c r="G292" s="5">
         <v>0.002</v>
       </c>
       <c r="H292" s="4" t="s">
@@ -11375,10 +11386,10 @@
         <v>580</v>
       </c>
       <c r="F293" s="4">
-        <f>LEN(E293)-LEN(SUBSTITUTE(E293,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G293" s="6">
+      <c r="G293" s="5">
         <v>0.014999999999999999</v>
       </c>
       <c r="H293" s="4" t="s">
@@ -11402,10 +11413,10 @@
         <v>582</v>
       </c>
       <c r="F294" s="4">
-        <f>LEN(E294)-LEN(SUBSTITUTE(E294,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G294" s="6">
+      <c r="G294" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H294" s="4" t="s">
@@ -11429,10 +11440,10 @@
         <v>584</v>
       </c>
       <c r="F295" s="4">
-        <f>LEN(E295)-LEN(SUBSTITUTE(E295,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G295" s="6">
+      <c r="G295" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H295" s="4" t="s">
@@ -11456,10 +11467,10 @@
         <v>586</v>
       </c>
       <c r="F296" s="4">
-        <f>LEN(E296)-LEN(SUBSTITUTE(E296,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G296" s="6">
+      <c r="G296" s="5">
         <v>0.012</v>
       </c>
       <c r="H296" s="4" t="s">
@@ -11483,10 +11494,10 @@
         <v>588</v>
       </c>
       <c r="F297" s="4">
-        <f>LEN(E297)-LEN(SUBSTITUTE(E297,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G297" s="6">
+      <c r="G297" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H297" s="4" t="s">
@@ -11510,10 +11521,10 @@
         <v>590</v>
       </c>
       <c r="F298" s="4">
-        <f>LEN(E298)-LEN(SUBSTITUTE(E298,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G298" s="6">
+      <c r="G298" s="5">
         <v>1.419</v>
       </c>
       <c r="H298" s="4" t="s">
@@ -11537,10 +11548,10 @@
         <v>592</v>
       </c>
       <c r="F299" s="4">
-        <f>LEN(E299)-LEN(SUBSTITUTE(E299,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G299" s="6">
+      <c r="G299" s="5">
         <v>0.01</v>
       </c>
       <c r="H299" s="4" t="s">
@@ -11564,10 +11575,10 @@
         <v>594</v>
       </c>
       <c r="F300" s="4">
-        <f>LEN(E300)-LEN(SUBSTITUTE(E300,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G300" s="6">
+      <c r="G300" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H300" s="4" t="s">
@@ -11591,10 +11602,10 @@
         <v>596</v>
       </c>
       <c r="F301" s="4">
-        <f>LEN(E301)-LEN(SUBSTITUTE(E301,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G301" s="6">
+      <c r="G301" s="5">
         <v>0.031</v>
       </c>
       <c r="H301" s="4" t="s">
@@ -11618,10 +11629,10 @@
         <v>598</v>
       </c>
       <c r="F302" s="4">
-        <f>LEN(E302)-LEN(SUBSTITUTE(E302,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G302" s="6">
+      <c r="G302" s="5">
         <v>0.14799999999999999</v>
       </c>
       <c r="H302" s="4" t="s">
@@ -11645,10 +11656,10 @@
         <v>600</v>
       </c>
       <c r="F303" s="4">
-        <f>LEN(E303)-LEN(SUBSTITUTE(E303,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G303" s="6">
+      <c r="G303" s="5">
         <v>0.047</v>
       </c>
       <c r="H303" s="4" t="s">
@@ -11672,10 +11683,10 @@
         <v>602</v>
       </c>
       <c r="F304" s="4">
-        <f>LEN(E304)-LEN(SUBSTITUTE(E304,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G304" s="6">
+      <c r="G304" s="5">
         <v>0.001</v>
       </c>
       <c r="H304" s="4" t="s">
@@ -11699,10 +11710,10 @@
         <v>604</v>
       </c>
       <c r="F305" s="4">
-        <f>LEN(E305)-LEN(SUBSTITUTE(E305,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G305" s="6">
+      <c r="G305" s="5">
         <v>0.002</v>
       </c>
       <c r="H305" s="4" t="s">
@@ -11726,10 +11737,10 @@
         <v>606</v>
       </c>
       <c r="F306" s="4">
-        <f>LEN(E306)-LEN(SUBSTITUTE(E306,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G306" s="6">
+      <c r="G306" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H306" s="4" t="s">
@@ -11753,10 +11764,10 @@
         <v>608</v>
       </c>
       <c r="F307" s="4">
-        <f>LEN(E307)-LEN(SUBSTITUTE(E307,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="G307" s="6">
+      <c r="G307" s="5">
         <v>0.002</v>
       </c>
       <c r="H307" s="4" t="s">
@@ -11780,10 +11791,10 @@
         <v>610</v>
       </c>
       <c r="F308" s="4">
-        <f>LEN(E308)-LEN(SUBSTITUTE(E308,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G308" s="6">
+      <c r="G308" s="5">
         <v>0.002</v>
       </c>
       <c r="H308" s="4" t="s">
@@ -11807,10 +11818,10 @@
         <v>612</v>
       </c>
       <c r="F309" s="4">
-        <f>LEN(E309)-LEN(SUBSTITUTE(E309,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G309" s="6">
+      <c r="G309" s="5">
         <v>0.012</v>
       </c>
       <c r="H309" s="4" t="s">
@@ -11834,10 +11845,10 @@
         <v>614</v>
       </c>
       <c r="F310" s="4">
-        <f>LEN(E310)-LEN(SUBSTITUTE(E310,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G310" s="6">
+      <c r="G310" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H310" s="4" t="s">
@@ -11861,10 +11872,10 @@
         <v>616</v>
       </c>
       <c r="F311" s="4">
-        <f>LEN(E311)-LEN(SUBSTITUTE(E311,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G311" s="6">
+      <c r="G311" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H311" s="4" t="s">
@@ -11888,10 +11899,10 @@
         <v>618</v>
       </c>
       <c r="F312" s="4">
-        <f>LEN(E312)-LEN(SUBSTITUTE(E312,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G312" s="6">
+      <c r="G312" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H312" s="4" t="s">
@@ -11915,10 +11926,10 @@
         <v>620</v>
       </c>
       <c r="F313" s="4">
-        <f>LEN(E313)-LEN(SUBSTITUTE(E313,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G313" s="6">
+      <c r="G313" s="5">
         <v>0.016</v>
       </c>
       <c r="H313" s="4" t="s">
@@ -11942,10 +11953,10 @@
         <v>622</v>
       </c>
       <c r="F314" s="4">
-        <f>LEN(E314)-LEN(SUBSTITUTE(E314,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G314" s="6">
+      <c r="G314" s="5">
         <v>0.021999999999999999</v>
       </c>
       <c r="H314" s="4" t="s">
@@ -11969,10 +11980,10 @@
         <v>624</v>
       </c>
       <c r="F315" s="4">
-        <f>LEN(E315)-LEN(SUBSTITUTE(E315,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G315" s="6">
+      <c r="G315" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H315" s="4" t="s">
@@ -11996,10 +12007,10 @@
         <v>626</v>
       </c>
       <c r="F316" s="4">
-        <f>LEN(E316)-LEN(SUBSTITUTE(E316,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G316" s="6">
+      <c r="G316" s="5">
         <v>0.001</v>
       </c>
       <c r="H316" s="4" t="s">
@@ -12023,10 +12034,10 @@
         <v>628</v>
       </c>
       <c r="F317" s="4">
-        <f>LEN(E317)-LEN(SUBSTITUTE(E317,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G317" s="6">
+      <c r="G317" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H317" s="4" t="s">
@@ -12050,10 +12061,10 @@
         <v>630</v>
       </c>
       <c r="F318" s="4">
-        <f>LEN(E318)-LEN(SUBSTITUTE(E318,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G318" s="6">
+      <c r="G318" s="5">
         <v>0.002</v>
       </c>
       <c r="H318" s="4" t="s">
@@ -12077,10 +12088,10 @@
         <v>632</v>
       </c>
       <c r="F319" s="4">
-        <f>LEN(E319)-LEN(SUBSTITUTE(E319,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G319" s="6">
+      <c r="G319" s="5">
         <v>0.001</v>
       </c>
       <c r="H319" s="4" t="s">
@@ -12104,10 +12115,10 @@
         <v>634</v>
       </c>
       <c r="F320" s="4">
-        <f>LEN(E320)-LEN(SUBSTITUTE(E320,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G320" s="6">
+      <c r="G320" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H320" s="4" t="s">
@@ -12131,10 +12142,10 @@
         <v>636</v>
       </c>
       <c r="F321" s="4">
-        <f>LEN(E321)-LEN(SUBSTITUTE(E321,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G321" s="6">
+      <c r="G321" s="5">
         <v>0.050999999999999997</v>
       </c>
       <c r="H321" s="4" t="s">
@@ -12158,10 +12169,10 @@
         <v>638</v>
       </c>
       <c r="F322" s="4">
-        <f>LEN(E322)-LEN(SUBSTITUTE(E322,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G322" s="6">
+      <c r="G322" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H322" s="4" t="s">
@@ -12185,10 +12196,10 @@
         <v>640</v>
       </c>
       <c r="F323" s="4">
-        <f>LEN(E323)-LEN(SUBSTITUTE(E323,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G323" s="6">
+      <c r="G323" s="5">
         <v>0.035999999999999997</v>
       </c>
       <c r="H323" s="4" t="s">
@@ -12212,10 +12223,10 @@
         <v>642</v>
       </c>
       <c r="F324" s="4">
-        <f>LEN(E324)-LEN(SUBSTITUTE(E324,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G324" s="6">
+      <c r="G324" s="5">
         <v>0.002</v>
       </c>
       <c r="H324" s="4" t="s">
@@ -12239,10 +12250,10 @@
         <v>644</v>
       </c>
       <c r="F325" s="4">
-        <f>LEN(E325)-LEN(SUBSTITUTE(E325,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G325" s="6">
+      <c r="G325" s="5">
         <v>0.002</v>
       </c>
       <c r="H325" s="4" t="s">
@@ -12266,10 +12277,10 @@
         <v>646</v>
       </c>
       <c r="F326" s="4">
-        <f>LEN(E326)-LEN(SUBSTITUTE(E326,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G326" s="6">
+      <c r="G326" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H326" s="4" t="s">
@@ -12293,10 +12304,10 @@
         <v>648</v>
       </c>
       <c r="F327" s="4">
-        <f>LEN(E327)-LEN(SUBSTITUTE(E327,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G327" s="6">
+      <c r="G327" s="5">
         <v>0.002</v>
       </c>
       <c r="H327" s="4" t="s">
@@ -12320,10 +12331,10 @@
         <v>650</v>
       </c>
       <c r="F328" s="4">
-        <f>LEN(E328)-LEN(SUBSTITUTE(E328,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G328" s="6">
+      <c r="G328" s="5">
         <v>0.012</v>
       </c>
       <c r="H328" s="4" t="s">
@@ -12347,10 +12358,10 @@
         <v>652</v>
       </c>
       <c r="F329" s="4">
-        <f>LEN(E329)-LEN(SUBSTITUTE(E329,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G329" s="6">
+      <c r="G329" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H329" s="4" t="s">
@@ -12374,10 +12385,10 @@
         <v>654</v>
       </c>
       <c r="F330" s="4">
-        <f>LEN(E330)-LEN(SUBSTITUTE(E330,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G330" s="6">
+      <c r="G330" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H330" s="4" t="s">
@@ -12401,10 +12412,10 @@
         <v>656</v>
       </c>
       <c r="F331" s="4">
-        <f>LEN(E331)-LEN(SUBSTITUTE(E331,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G331" s="6">
+      <c r="G331" s="5">
         <v>0.017000000000000001</v>
       </c>
       <c r="H331" s="4" t="s">
@@ -12428,10 +12439,10 @@
         <v>658</v>
       </c>
       <c r="F332" s="4">
-        <f>LEN(E332)-LEN(SUBSTITUTE(E332,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G332" s="6">
+      <c r="G332" s="5">
         <v>0.017000000000000001</v>
       </c>
       <c r="H332" s="4" t="s">
@@ -12455,10 +12466,10 @@
         <v>660</v>
       </c>
       <c r="F333" s="4">
-        <f>LEN(E333)-LEN(SUBSTITUTE(E333,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G333" s="6">
+      <c r="G333" s="5">
         <v>0.028000000000000001</v>
       </c>
       <c r="H333" s="4" t="s">
@@ -12482,10 +12493,10 @@
         <v>662</v>
       </c>
       <c r="F334" s="4">
-        <f>LEN(E334)-LEN(SUBSTITUTE(E334,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G334" s="6">
+      <c r="G334" s="5">
         <v>0.002</v>
       </c>
       <c r="H334" s="4" t="s">
@@ -12509,10 +12520,10 @@
         <v>664</v>
       </c>
       <c r="F335" s="4">
-        <f>LEN(E335)-LEN(SUBSTITUTE(E335,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G335" s="6">
+      <c r="G335" s="5">
         <v>0.001</v>
       </c>
       <c r="H335" s="4" t="s">
@@ -12536,10 +12547,10 @@
         <v>666</v>
       </c>
       <c r="F336" s="4">
-        <f>LEN(E336)-LEN(SUBSTITUTE(E336,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G336" s="6">
+      <c r="G336" s="5">
         <v>0.029000000000000001</v>
       </c>
       <c r="H336" s="4" t="s">
@@ -12563,10 +12574,10 @@
         <v>668</v>
       </c>
       <c r="F337" s="4">
-        <f>LEN(E337)-LEN(SUBSTITUTE(E337,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="G337" s="6">
+      <c r="G337" s="5">
         <v>1.871</v>
       </c>
       <c r="H337" s="4" t="s">
@@ -12590,10 +12601,10 @@
         <v>670</v>
       </c>
       <c r="F338" s="4">
-        <f>LEN(E338)-LEN(SUBSTITUTE(E338,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G338" s="6">
+      <c r="G338" s="5">
         <v>0.001</v>
       </c>
       <c r="H338" s="4" t="s">
@@ -12617,10 +12628,10 @@
         <v>672</v>
       </c>
       <c r="F339" s="4">
-        <f>LEN(E339)-LEN(SUBSTITUTE(E339,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G339" s="6">
+      <c r="G339" s="5">
         <v>0.019</v>
       </c>
       <c r="H339" s="4" t="s">
@@ -12644,10 +12655,10 @@
         <v>674</v>
       </c>
       <c r="F340" s="4">
-        <f>LEN(E340)-LEN(SUBSTITUTE(E340,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G340" s="6">
+      <c r="G340" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H340" s="4" t="s">
@@ -12671,10 +12682,10 @@
         <v>676</v>
       </c>
       <c r="F341" s="4">
-        <f>LEN(E341)-LEN(SUBSTITUTE(E341,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="G341" s="6">
+      <c r="G341" s="5">
         <v>0.002</v>
       </c>
       <c r="H341" s="4" t="s">
@@ -12698,10 +12709,10 @@
         <v>678</v>
       </c>
       <c r="F342" s="4">
-        <f>LEN(E342)-LEN(SUBSTITUTE(E342,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G342" s="6">
+      <c r="G342" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H342" s="4" t="s">
@@ -12725,10 +12736,10 @@
         <v>680</v>
       </c>
       <c r="F343" s="4">
-        <f>LEN(E343)-LEN(SUBSTITUTE(E343,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G343" s="6">
+      <c r="G343" s="5">
         <v>0.039</v>
       </c>
       <c r="H343" s="4" t="s">
@@ -12752,10 +12763,10 @@
         <v>682</v>
       </c>
       <c r="F344" s="4">
-        <f>LEN(E344)-LEN(SUBSTITUTE(E344,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G344" s="6">
+      <c r="G344" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H344" s="4" t="s">
@@ -12779,10 +12790,10 @@
         <v>684</v>
       </c>
       <c r="F345" s="4">
-        <f>LEN(E345)-LEN(SUBSTITUTE(E345,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G345" s="6">
+      <c r="G345" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H345" s="4" t="s">
@@ -12806,10 +12817,10 @@
         <v>686</v>
       </c>
       <c r="F346" s="4">
-        <f>LEN(E346)-LEN(SUBSTITUTE(E346,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G346" s="6">
+      <c r="G346" s="5">
         <v>0.035999999999999997</v>
       </c>
       <c r="H346" s="4" t="s">
@@ -12833,10 +12844,10 @@
         <v>688</v>
       </c>
       <c r="F347" s="4">
-        <f>LEN(E347)-LEN(SUBSTITUTE(E347,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="G347" s="6">
+      <c r="G347" s="5">
         <v>0.001</v>
       </c>
       <c r="H347" s="4" t="s">
@@ -12860,10 +12871,10 @@
         <v>690</v>
       </c>
       <c r="F348" s="4">
-        <f>LEN(E348)-LEN(SUBSTITUTE(E348,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G348" s="6">
+      <c r="G348" s="5">
         <v>0.017999999999999999</v>
       </c>
       <c r="H348" s="4" t="s">
@@ -12887,10 +12898,10 @@
         <v>692</v>
       </c>
       <c r="F349" s="4">
-        <f>LEN(E349)-LEN(SUBSTITUTE(E349,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G349" s="6">
+      <c r="G349" s="5">
         <v>0.02</v>
       </c>
       <c r="H349" s="4" t="s">
@@ -12914,10 +12925,10 @@
         <v>694</v>
       </c>
       <c r="F350" s="4">
-        <f>LEN(E350)-LEN(SUBSTITUTE(E350,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G350" s="6">
+      <c r="G350" s="5">
         <v>0.029999999999999999</v>
       </c>
       <c r="H350" s="4" t="s">
@@ -12941,10 +12952,10 @@
         <v>696</v>
       </c>
       <c r="F351" s="4">
-        <f>LEN(E351)-LEN(SUBSTITUTE(E351,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G351" s="6">
+      <c r="G351" s="5">
         <v>0.002</v>
       </c>
       <c r="H351" s="4" t="s">
@@ -12968,10 +12979,10 @@
         <v>698</v>
       </c>
       <c r="F352" s="4">
-        <f>LEN(E352)-LEN(SUBSTITUTE(E352,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G352" s="6">
+      <c r="G352" s="5">
         <v>0.002</v>
       </c>
       <c r="H352" s="4" t="s">
@@ -12995,10 +13006,10 @@
         <v>700</v>
       </c>
       <c r="F353" s="4">
-        <f>LEN(E353)-LEN(SUBSTITUTE(E353,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G353" s="6">
+      <c r="G353" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H353" s="4" t="s">
@@ -13022,10 +13033,10 @@
         <v>702</v>
       </c>
       <c r="F354" s="4">
-        <f>LEN(E354)-LEN(SUBSTITUTE(E354,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G354" s="6">
+      <c r="G354" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H354" s="4" t="s">
@@ -13049,10 +13060,10 @@
         <v>704</v>
       </c>
       <c r="F355" s="4">
-        <f>LEN(E355)-LEN(SUBSTITUTE(E355,"1",""))</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="G355" s="6">
+      <c r="G355" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H355" s="4" t="s">
@@ -13076,10 +13087,10 @@
         <v>706</v>
       </c>
       <c r="F356" s="4">
-        <f>LEN(E356)-LEN(SUBSTITUTE(E356,"1",""))</f>
+        <f t="shared" ref="F356:F419" si="7">LEN(E356)-LEN(SUBSTITUTE(E356,"1",""))</f>
         <v>5</v>
       </c>
-      <c r="G356" s="6">
+      <c r="G356" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H356" s="4" t="s">
@@ -13103,10 +13114,10 @@
         <v>708</v>
       </c>
       <c r="F357" s="4">
-        <f>LEN(E357)-LEN(SUBSTITUTE(E357,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G357" s="6">
+      <c r="G357" s="5">
         <v>0.01</v>
       </c>
       <c r="H357" s="4" t="s">
@@ -13130,10 +13141,10 @@
         <v>710</v>
       </c>
       <c r="F358" s="4">
-        <f>LEN(E358)-LEN(SUBSTITUTE(E358,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G358" s="6">
+      <c r="G358" s="5">
         <v>0.014</v>
       </c>
       <c r="H358" s="4" t="s">
@@ -13157,10 +13168,10 @@
         <v>712</v>
       </c>
       <c r="F359" s="4">
-        <f>LEN(E359)-LEN(SUBSTITUTE(E359,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G359" s="6">
+      <c r="G359" s="5">
         <v>0.002</v>
       </c>
       <c r="H359" s="4" t="s">
@@ -13184,10 +13195,10 @@
         <v>714</v>
       </c>
       <c r="F360" s="4">
-        <f>LEN(E360)-LEN(SUBSTITUTE(E360,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G360" s="6">
+      <c r="G360" s="5">
         <v>1.1850000000000001</v>
       </c>
       <c r="H360" s="4" t="s">
@@ -13211,10 +13222,10 @@
         <v>716</v>
       </c>
       <c r="F361" s="4">
-        <f>LEN(E361)-LEN(SUBSTITUTE(E361,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G361" s="6">
+      <c r="G361" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H361" s="4" t="s">
@@ -13238,10 +13249,10 @@
         <v>718</v>
       </c>
       <c r="F362" s="4">
-        <f>LEN(E362)-LEN(SUBSTITUTE(E362,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G362" s="6">
+      <c r="G362" s="5">
         <v>0.091999999999999998</v>
       </c>
       <c r="H362" s="4" t="s">
@@ -13265,10 +13276,10 @@
         <v>720</v>
       </c>
       <c r="F363" s="4">
-        <f>LEN(E363)-LEN(SUBSTITUTE(E363,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G363" s="6">
+      <c r="G363" s="5">
         <v>0.29599999999999999</v>
       </c>
       <c r="H363" s="4" t="s">
@@ -13292,10 +13303,10 @@
         <v>722</v>
       </c>
       <c r="F364" s="4">
-        <f>LEN(E364)-LEN(SUBSTITUTE(E364,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G364" s="6">
+      <c r="G364" s="5">
         <v>0.001</v>
       </c>
       <c r="H364" s="4" t="s">
@@ -13319,10 +13330,10 @@
         <v>724</v>
       </c>
       <c r="F365" s="4">
-        <f>LEN(E365)-LEN(SUBSTITUTE(E365,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G365" s="6">
+      <c r="G365" s="5">
         <v>0.218</v>
       </c>
       <c r="H365" s="4" t="s">
@@ -13346,10 +13357,10 @@
         <v>726</v>
       </c>
       <c r="F366" s="4">
-        <f>LEN(E366)-LEN(SUBSTITUTE(E366,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G366" s="6">
+      <c r="G366" s="5">
         <v>0.016</v>
       </c>
       <c r="H366" s="4" t="s">
@@ -13373,10 +13384,10 @@
         <v>728</v>
       </c>
       <c r="F367" s="4">
-        <f>LEN(E367)-LEN(SUBSTITUTE(E367,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G367" s="6">
+      <c r="G367" s="5">
         <v>0.002</v>
       </c>
       <c r="H367" s="4" t="s">
@@ -13400,10 +13411,10 @@
         <v>730</v>
       </c>
       <c r="F368" s="4">
-        <f>LEN(E368)-LEN(SUBSTITUTE(E368,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G368" s="6">
+      <c r="G368" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H368" s="4" t="s">
@@ -13427,10 +13438,10 @@
         <v>732</v>
       </c>
       <c r="F369" s="4">
-        <f>LEN(E369)-LEN(SUBSTITUTE(E369,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G369" s="6">
+      <c r="G369" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H369" s="4" t="s">
@@ -13454,10 +13465,10 @@
         <v>734</v>
       </c>
       <c r="F370" s="4">
-        <f>LEN(E370)-LEN(SUBSTITUTE(E370,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G370" s="6">
+      <c r="G370" s="5">
         <v>0.13700000000000001</v>
       </c>
       <c r="H370" s="4" t="s">
@@ -13481,10 +13492,10 @@
         <v>736</v>
       </c>
       <c r="F371" s="4">
-        <f>LEN(E371)-LEN(SUBSTITUTE(E371,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G371" s="6">
+      <c r="G371" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H371" s="4" t="s">
@@ -13508,10 +13519,10 @@
         <v>738</v>
       </c>
       <c r="F372" s="4">
-        <f>LEN(E372)-LEN(SUBSTITUTE(E372,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G372" s="6">
+      <c r="G372" s="5">
         <v>0.035000000000000003</v>
       </c>
       <c r="H372" s="4" t="s">
@@ -13535,10 +13546,10 @@
         <v>740</v>
       </c>
       <c r="F373" s="4">
-        <f>LEN(E373)-LEN(SUBSTITUTE(E373,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G373" s="6">
+      <c r="G373" s="5">
         <v>0.001</v>
       </c>
       <c r="H373" s="4" t="s">
@@ -13562,10 +13573,10 @@
         <v>742</v>
       </c>
       <c r="F374" s="4">
-        <f>LEN(E374)-LEN(SUBSTITUTE(E374,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G374" s="6">
+      <c r="G374" s="5">
         <v>0</v>
       </c>
       <c r="H374" s="4" t="s">
@@ -13589,10 +13600,10 @@
         <v>744</v>
       </c>
       <c r="F375" s="4">
-        <f>LEN(E375)-LEN(SUBSTITUTE(E375,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G375" s="6">
+      <c r="G375" s="5">
         <v>0.002</v>
       </c>
       <c r="H375" s="4" t="s">
@@ -13616,10 +13627,10 @@
         <v>746</v>
       </c>
       <c r="F376" s="4">
-        <f>LEN(E376)-LEN(SUBSTITUTE(E376,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G376" s="6">
+      <c r="G376" s="5">
         <v>0.73099999999999998</v>
       </c>
       <c r="H376" s="4" t="s">
@@ -13643,10 +13654,10 @@
         <v>748</v>
       </c>
       <c r="F377" s="4">
-        <f>LEN(E377)-LEN(SUBSTITUTE(E377,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G377" s="6">
+      <c r="G377" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H377" s="4" t="s">
@@ -13670,10 +13681,10 @@
         <v>750</v>
       </c>
       <c r="F378" s="4">
-        <f>LEN(E378)-LEN(SUBSTITUTE(E378,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G378" s="6">
+      <c r="G378" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H378" s="4" t="s">
@@ -13697,10 +13708,10 @@
         <v>752</v>
       </c>
       <c r="F379" s="4">
-        <f>LEN(E379)-LEN(SUBSTITUTE(E379,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G379" s="6">
+      <c r="G379" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H379" s="4" t="s">
@@ -13724,10 +13735,10 @@
         <v>754</v>
       </c>
       <c r="F380" s="4">
-        <f>LEN(E380)-LEN(SUBSTITUTE(E380,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G380" s="6">
+      <c r="G380" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H380" s="4" t="s">
@@ -13751,10 +13762,10 @@
         <v>756</v>
       </c>
       <c r="F381" s="4">
-        <f>LEN(E381)-LEN(SUBSTITUTE(E381,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G381" s="6">
+      <c r="G381" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H381" s="4" t="s">
@@ -13778,10 +13789,10 @@
         <v>758</v>
       </c>
       <c r="F382" s="4">
-        <f>LEN(E382)-LEN(SUBSTITUTE(E382,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G382" s="6">
+      <c r="G382" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H382" s="4" t="s">
@@ -13805,10 +13816,10 @@
         <v>760</v>
       </c>
       <c r="F383" s="4">
-        <f>LEN(E383)-LEN(SUBSTITUTE(E383,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G383" s="6">
+      <c r="G383" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H383" s="4" t="s">
@@ -13832,10 +13843,10 @@
         <v>762</v>
       </c>
       <c r="F384" s="4">
-        <f>LEN(E384)-LEN(SUBSTITUTE(E384,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G384" s="6">
+      <c r="G384" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H384" s="4" t="s">
@@ -13859,10 +13870,10 @@
         <v>764</v>
       </c>
       <c r="F385" s="4">
-        <f>LEN(E385)-LEN(SUBSTITUTE(E385,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G385" s="6">
+      <c r="G385" s="5">
         <v>0.89300000000000002</v>
       </c>
       <c r="H385" s="4" t="s">
@@ -13886,10 +13897,10 @@
         <v>766</v>
       </c>
       <c r="F386" s="4">
-        <f>LEN(E386)-LEN(SUBSTITUTE(E386,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G386" s="6">
+      <c r="G386" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H386" s="4" t="s">
@@ -13913,10 +13924,10 @@
         <v>768</v>
       </c>
       <c r="F387" s="4">
-        <f>LEN(E387)-LEN(SUBSTITUTE(E387,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G387" s="6">
+      <c r="G387" s="5">
         <v>0.014999999999999999</v>
       </c>
       <c r="H387" s="4" t="s">
@@ -13940,10 +13951,10 @@
         <v>770</v>
       </c>
       <c r="F388" s="4">
-        <f>LEN(E388)-LEN(SUBSTITUTE(E388,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G388" s="6">
+      <c r="G388" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H388" s="4" t="s">
@@ -13967,10 +13978,10 @@
         <v>772</v>
       </c>
       <c r="F389" s="4">
-        <f>LEN(E389)-LEN(SUBSTITUTE(E389,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G389" s="6">
+      <c r="G389" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H389" s="4" t="s">
@@ -13994,10 +14005,10 @@
         <v>774</v>
       </c>
       <c r="F390" s="4">
-        <f>LEN(E390)-LEN(SUBSTITUTE(E390,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G390" s="6">
+      <c r="G390" s="5">
         <v>0.01</v>
       </c>
       <c r="H390" s="4" t="s">
@@ -14021,10 +14032,10 @@
         <v>776</v>
       </c>
       <c r="F391" s="4">
-        <f>LEN(E391)-LEN(SUBSTITUTE(E391,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G391" s="6">
+      <c r="G391" s="5">
         <v>0.035000000000000003</v>
       </c>
       <c r="H391" s="4" t="s">
@@ -14048,10 +14059,10 @@
         <v>778</v>
       </c>
       <c r="F392" s="4">
-        <f>LEN(E392)-LEN(SUBSTITUTE(E392,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G392" s="6">
+      <c r="G392" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H392" s="4" t="s">
@@ -14075,10 +14086,10 @@
         <v>780</v>
       </c>
       <c r="F393" s="4">
-        <f>LEN(E393)-LEN(SUBSTITUTE(E393,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G393" s="6">
+      <c r="G393" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H393" s="4" t="s">
@@ -14102,10 +14113,10 @@
         <v>782</v>
       </c>
       <c r="F394" s="4">
-        <f>LEN(E394)-LEN(SUBSTITUTE(E394,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="G394" s="6">
+      <c r="G394" s="5">
         <v>0.002</v>
       </c>
       <c r="H394" s="4" t="s">
@@ -14129,10 +14140,10 @@
         <v>784</v>
       </c>
       <c r="F395" s="4">
-        <f>LEN(E395)-LEN(SUBSTITUTE(E395,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="G395" s="6">
+      <c r="G395" s="5">
         <v>0.002</v>
       </c>
       <c r="H395" s="4" t="s">
@@ -14156,10 +14167,10 @@
         <v>786</v>
       </c>
       <c r="F396" s="4">
-        <f>LEN(E396)-LEN(SUBSTITUTE(E396,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G396" s="6">
+      <c r="G396" s="5">
         <v>0.001</v>
       </c>
       <c r="H396" s="4" t="s">
@@ -14183,10 +14194,10 @@
         <v>788</v>
       </c>
       <c r="F397" s="4">
-        <f>LEN(E397)-LEN(SUBSTITUTE(E397,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G397" s="6">
+      <c r="G397" s="5">
         <v>0.021000000000000001</v>
       </c>
       <c r="H397" s="4" t="s">
@@ -14210,10 +14221,10 @@
         <v>790</v>
       </c>
       <c r="F398" s="4">
-        <f>LEN(E398)-LEN(SUBSTITUTE(E398,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G398" s="6">
+      <c r="G398" s="5">
         <v>0.028000000000000001</v>
       </c>
       <c r="H398" s="4" t="s">
@@ -14237,10 +14248,10 @@
         <v>792</v>
       </c>
       <c r="F399" s="4">
-        <f>LEN(E399)-LEN(SUBSTITUTE(E399,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G399" s="6">
+      <c r="G399" s="5">
         <v>0.024</v>
       </c>
       <c r="H399" s="4" t="s">
@@ -14264,10 +14275,10 @@
         <v>794</v>
       </c>
       <c r="F400" s="4">
-        <f>LEN(E400)-LEN(SUBSTITUTE(E400,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G400" s="6">
+      <c r="G400" s="5">
         <v>0.001</v>
       </c>
       <c r="H400" s="4" t="s">
@@ -14291,10 +14302,10 @@
         <v>796</v>
       </c>
       <c r="F401" s="4">
-        <f>LEN(E401)-LEN(SUBSTITUTE(E401,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G401" s="6">
+      <c r="G401" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H401" s="4" t="s">
@@ -14318,10 +14329,10 @@
         <v>798</v>
       </c>
       <c r="F402" s="4">
-        <f>LEN(E402)-LEN(SUBSTITUTE(E402,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G402" s="6">
+      <c r="G402" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H402" s="4" t="s">
@@ -14345,10 +14356,10 @@
         <v>800</v>
       </c>
       <c r="F403" s="4">
-        <f>LEN(E403)-LEN(SUBSTITUTE(E403,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G403" s="6">
+      <c r="G403" s="5">
         <v>0.27900000000000003</v>
       </c>
       <c r="H403" s="4" t="s">
@@ -14372,10 +14383,10 @@
         <v>802</v>
       </c>
       <c r="F404" s="4">
-        <f>LEN(E404)-LEN(SUBSTITUTE(E404,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="G404" s="6">
+      <c r="G404" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H404" s="4" t="s">
@@ -14399,10 +14410,10 @@
         <v>804</v>
       </c>
       <c r="F405" s="4">
-        <f>LEN(E405)-LEN(SUBSTITUTE(E405,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G405" s="6">
+      <c r="G405" s="5">
         <v>0.019</v>
       </c>
       <c r="H405" s="4" t="s">
@@ -14426,10 +14437,10 @@
         <v>806</v>
       </c>
       <c r="F406" s="4">
-        <f>LEN(E406)-LEN(SUBSTITUTE(E406,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G406" s="6">
+      <c r="G406" s="5">
         <v>0.051999999999999998</v>
       </c>
       <c r="H406" s="4" t="s">
@@ -14453,10 +14464,10 @@
         <v>808</v>
       </c>
       <c r="F407" s="4">
-        <f>LEN(E407)-LEN(SUBSTITUTE(E407,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G407" s="6">
+      <c r="G407" s="5">
         <v>0.049000000000000002</v>
       </c>
       <c r="H407" s="4" t="s">
@@ -14480,10 +14491,10 @@
         <v>810</v>
       </c>
       <c r="F408" s="4">
-        <f>LEN(E408)-LEN(SUBSTITUTE(E408,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G408" s="6">
+      <c r="G408" s="5">
         <v>0.002</v>
       </c>
       <c r="H408" s="4" t="s">
@@ -14507,10 +14518,10 @@
         <v>812</v>
       </c>
       <c r="F409" s="4">
-        <f>LEN(E409)-LEN(SUBSTITUTE(E409,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G409" s="6">
+      <c r="G409" s="5">
         <v>0.002</v>
       </c>
       <c r="H409" s="4" t="s">
@@ -14534,10 +14545,10 @@
         <v>814</v>
       </c>
       <c r="F410" s="4">
-        <f>LEN(E410)-LEN(SUBSTITUTE(E410,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G410" s="6">
+      <c r="G410" s="5">
         <v>0.033000000000000002</v>
       </c>
       <c r="H410" s="4" t="s">
@@ -14561,10 +14572,10 @@
         <v>816</v>
       </c>
       <c r="F411" s="4">
-        <f>LEN(E411)-LEN(SUBSTITUTE(E411,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="G411" s="6">
+      <c r="G411" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H411" s="4" t="s">
@@ -14588,10 +14599,10 @@
         <v>818</v>
       </c>
       <c r="F412" s="4">
-        <f>LEN(E412)-LEN(SUBSTITUTE(E412,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G412" s="6">
+      <c r="G412" s="5">
         <v>0.002</v>
       </c>
       <c r="H412" s="4" t="s">
@@ -14615,10 +14626,10 @@
         <v>820</v>
       </c>
       <c r="F413" s="4">
-        <f>LEN(E413)-LEN(SUBSTITUTE(E413,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G413" s="6">
+      <c r="G413" s="5">
         <v>0.002</v>
       </c>
       <c r="H413" s="4" t="s">
@@ -14642,10 +14653,10 @@
         <v>822</v>
       </c>
       <c r="F414" s="4">
-        <f>LEN(E414)-LEN(SUBSTITUTE(E414,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="G414" s="6">
+      <c r="G414" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H414" s="4" t="s">
@@ -14669,10 +14680,10 @@
         <v>824</v>
       </c>
       <c r="F415" s="4">
-        <f>LEN(E415)-LEN(SUBSTITUTE(E415,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G415" s="6">
+      <c r="G415" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H415" s="4" t="s">
@@ -14696,10 +14707,10 @@
         <v>826</v>
       </c>
       <c r="F416" s="4">
-        <f>LEN(E416)-LEN(SUBSTITUTE(E416,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="G416" s="6">
+      <c r="G416" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H416" s="4" t="s">
@@ -14723,10 +14734,10 @@
         <v>828</v>
       </c>
       <c r="F417" s="4">
-        <f>LEN(E417)-LEN(SUBSTITUTE(E417,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G417" s="6">
+      <c r="G417" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H417" s="4" t="s">
@@ -14750,10 +14761,10 @@
         <v>830</v>
       </c>
       <c r="F418" s="4">
-        <f>LEN(E418)-LEN(SUBSTITUTE(E418,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G418" s="6">
+      <c r="G418" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H418" s="4" t="s">
@@ -14777,10 +14788,10 @@
         <v>832</v>
       </c>
       <c r="F419" s="4">
-        <f>LEN(E419)-LEN(SUBSTITUTE(E419,"1",""))</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="G419" s="6">
+      <c r="G419" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H419" s="4" t="s">
@@ -14804,10 +14815,10 @@
         <v>834</v>
       </c>
       <c r="F420" s="4">
-        <f>LEN(E420)-LEN(SUBSTITUTE(E420,"1",""))</f>
+        <f t="shared" ref="F420:F483" si="8">LEN(E420)-LEN(SUBSTITUTE(E420,"1",""))</f>
         <v>8</v>
       </c>
-      <c r="G420" s="6">
+      <c r="G420" s="5">
         <v>0.0060000000000000001</v>
       </c>
       <c r="H420" s="4" t="s">
@@ -14831,10 +14842,10 @@
         <v>836</v>
       </c>
       <c r="F421" s="4">
-        <f>LEN(E421)-LEN(SUBSTITUTE(E421,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G421" s="6">
+      <c r="G421" s="5">
         <v>0.001</v>
       </c>
       <c r="H421" s="4" t="s">
@@ -14858,10 +14869,10 @@
         <v>838</v>
       </c>
       <c r="F422" s="4">
-        <f>LEN(E422)-LEN(SUBSTITUTE(E422,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G422" s="6">
+      <c r="G422" s="5">
         <v>0.26200000000000001</v>
       </c>
       <c r="H422" s="4" t="s">
@@ -14885,10 +14896,10 @@
         <v>840</v>
       </c>
       <c r="F423" s="4">
-        <f>LEN(E423)-LEN(SUBSTITUTE(E423,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G423" s="6">
+      <c r="G423" s="5">
         <v>0.002</v>
       </c>
       <c r="H423" s="4" t="s">
@@ -14912,10 +14923,10 @@
         <v>842</v>
       </c>
       <c r="F424" s="4">
-        <f>LEN(E424)-LEN(SUBSTITUTE(E424,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G424" s="6">
+      <c r="G424" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H424" s="4" t="s">
@@ -14939,10 +14950,10 @@
         <v>844</v>
       </c>
       <c r="F425" s="4">
-        <f>LEN(E425)-LEN(SUBSTITUTE(E425,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G425" s="6">
+      <c r="G425" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H425" s="4" t="s">
@@ -14966,10 +14977,10 @@
         <v>846</v>
       </c>
       <c r="F426" s="4">
-        <f>LEN(E426)-LEN(SUBSTITUTE(E426,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G426" s="6">
+      <c r="G426" s="5">
         <v>0.002</v>
       </c>
       <c r="H426" s="4" t="s">
@@ -14993,10 +15004,10 @@
         <v>848</v>
       </c>
       <c r="F427" s="4">
-        <f>LEN(E427)-LEN(SUBSTITUTE(E427,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="G427" s="6">
+      <c r="G427" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H427" s="4" t="s">
@@ -15020,10 +15031,10 @@
         <v>850</v>
       </c>
       <c r="F428" s="4">
-        <f>LEN(E428)-LEN(SUBSTITUTE(E428,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G428" s="6">
+      <c r="G428" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H428" s="4" t="s">
@@ -15047,10 +15058,10 @@
         <v>852</v>
       </c>
       <c r="F429" s="4">
-        <f>LEN(E429)-LEN(SUBSTITUTE(E429,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G429" s="6">
+      <c r="G429" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H429" s="4" t="s">
@@ -15074,10 +15085,10 @@
         <v>854</v>
       </c>
       <c r="F430" s="4">
-        <f>LEN(E430)-LEN(SUBSTITUTE(E430,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G430" s="6">
+      <c r="G430" s="5">
         <v>0.042000000000000003</v>
       </c>
       <c r="H430" s="4" t="s">
@@ -15101,10 +15112,10 @@
         <v>856</v>
       </c>
       <c r="F431" s="4">
-        <f>LEN(E431)-LEN(SUBSTITUTE(E431,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="G431" s="6">
+      <c r="G431" s="5">
         <v>0.036999999999999998</v>
       </c>
       <c r="H431" s="4" t="s">
@@ -15128,10 +15139,10 @@
         <v>858</v>
       </c>
       <c r="F432" s="4">
-        <f>LEN(E432)-LEN(SUBSTITUTE(E432,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G432" s="6">
+      <c r="G432" s="5">
         <v>0.021000000000000001</v>
       </c>
       <c r="H432" s="4" t="s">
@@ -15155,10 +15166,10 @@
         <v>860</v>
       </c>
       <c r="F433" s="4">
-        <f>LEN(E433)-LEN(SUBSTITUTE(E433,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G433" s="6">
+      <c r="G433" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H433" s="4" t="s">
@@ -15182,10 +15193,10 @@
         <v>862</v>
       </c>
       <c r="F434" s="4">
-        <f>LEN(E434)-LEN(SUBSTITUTE(E434,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G434" s="6">
+      <c r="G434" s="5">
         <v>0.024</v>
       </c>
       <c r="H434" s="4" t="s">
@@ -15209,10 +15220,10 @@
         <v>864</v>
       </c>
       <c r="F435" s="4">
-        <f>LEN(E435)-LEN(SUBSTITUTE(E435,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="G435" s="6">
+      <c r="G435" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H435" s="4" t="s">
@@ -15236,10 +15247,10 @@
         <v>866</v>
       </c>
       <c r="F436" s="4">
-        <f>LEN(E436)-LEN(SUBSTITUTE(E436,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G436" s="6">
+      <c r="G436" s="5">
         <v>0.001</v>
       </c>
       <c r="H436" s="4" t="s">
@@ -15263,10 +15274,10 @@
         <v>868</v>
       </c>
       <c r="F437" s="4">
-        <f>LEN(E437)-LEN(SUBSTITUTE(E437,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G437" s="6">
+      <c r="G437" s="5">
         <v>0.001</v>
       </c>
       <c r="H437" s="4" t="s">
@@ -15290,10 +15301,10 @@
         <v>870</v>
       </c>
       <c r="F438" s="4">
-        <f>LEN(E438)-LEN(SUBSTITUTE(E438,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G438" s="6">
+      <c r="G438" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H438" s="4" t="s">
@@ -15317,10 +15328,10 @@
         <v>872</v>
       </c>
       <c r="F439" s="4">
-        <f>LEN(E439)-LEN(SUBSTITUTE(E439,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G439" s="6">
+      <c r="G439" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H439" s="4" t="s">
@@ -15344,10 +15355,10 @@
         <v>874</v>
       </c>
       <c r="F440" s="4">
-        <f>LEN(E440)-LEN(SUBSTITUTE(E440,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G440" s="6">
+      <c r="G440" s="5">
         <v>0.106</v>
       </c>
       <c r="H440" s="4" t="s">
@@ -15371,10 +15382,10 @@
         <v>876</v>
       </c>
       <c r="F441" s="4">
-        <f>LEN(E441)-LEN(SUBSTITUTE(E441,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G441" s="6">
+      <c r="G441" s="5">
         <v>0.156</v>
       </c>
       <c r="H441" s="4" t="s">
@@ -15398,10 +15409,10 @@
         <v>878</v>
       </c>
       <c r="F442" s="4">
-        <f>LEN(E442)-LEN(SUBSTITUTE(E442,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G442" s="6">
+      <c r="G442" s="5">
         <v>0.001</v>
       </c>
       <c r="H442" s="4" t="s">
@@ -15425,10 +15436,10 @@
         <v>880</v>
       </c>
       <c r="F443" s="4">
-        <f>LEN(E443)-LEN(SUBSTITUTE(E443,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G443" s="6">
+      <c r="G443" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H443" s="4" t="s">
@@ -15452,10 +15463,10 @@
         <v>882</v>
       </c>
       <c r="F444" s="4">
-        <f>LEN(E444)-LEN(SUBSTITUTE(E444,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G444" s="6">
+      <c r="G444" s="5">
         <v>0.002</v>
       </c>
       <c r="H444" s="4" t="s">
@@ -15479,10 +15490,10 @@
         <v>884</v>
       </c>
       <c r="F445" s="4">
-        <f>LEN(E445)-LEN(SUBSTITUTE(E445,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G445" s="6">
+      <c r="G445" s="5">
         <v>0.01</v>
       </c>
       <c r="H445" s="4" t="s">
@@ -15506,10 +15517,10 @@
         <v>886</v>
       </c>
       <c r="F446" s="4">
-        <f>LEN(E446)-LEN(SUBSTITUTE(E446,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G446" s="6">
+      <c r="G446" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H446" s="4" t="s">
@@ -15533,10 +15544,10 @@
         <v>888</v>
       </c>
       <c r="F447" s="4">
-        <f>LEN(E447)-LEN(SUBSTITUTE(E447,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G447" s="6">
+      <c r="G447" s="5">
         <v>0.01</v>
       </c>
       <c r="H447" s="4" t="s">
@@ -15560,10 +15571,10 @@
         <v>890</v>
       </c>
       <c r="F448" s="4">
-        <f>LEN(E448)-LEN(SUBSTITUTE(E448,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G448" s="6">
+      <c r="G448" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H448" s="4" t="s">
@@ -15587,10 +15598,10 @@
         <v>892</v>
       </c>
       <c r="F449" s="4">
-        <f>LEN(E449)-LEN(SUBSTITUTE(E449,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G449" s="6">
+      <c r="G449" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H449" s="4" t="s">
@@ -15614,10 +15625,10 @@
         <v>894</v>
       </c>
       <c r="F450" s="4">
-        <f>LEN(E450)-LEN(SUBSTITUTE(E450,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G450" s="6">
+      <c r="G450" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H450" s="4" t="s">
@@ -15641,10 +15652,10 @@
         <v>896</v>
       </c>
       <c r="F451" s="4">
-        <f>LEN(E451)-LEN(SUBSTITUTE(E451,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G451" s="6">
+      <c r="G451" s="5">
         <v>0.050999999999999997</v>
       </c>
       <c r="H451" s="4" t="s">
@@ -15668,10 +15679,10 @@
         <v>898</v>
       </c>
       <c r="F452" s="4">
-        <f>LEN(E452)-LEN(SUBSTITUTE(E452,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G452" s="6">
+      <c r="G452" s="5">
         <v>0.0089999999999999993</v>
       </c>
       <c r="H452" s="4" t="s">
@@ -15695,10 +15706,10 @@
         <v>900</v>
       </c>
       <c r="F453" s="4">
-        <f>LEN(E453)-LEN(SUBSTITUTE(E453,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G453" s="6">
+      <c r="G453" s="5">
         <v>0.02</v>
       </c>
       <c r="H453" s="4" t="s">
@@ -15722,10 +15733,10 @@
         <v>902</v>
       </c>
       <c r="F454" s="4">
-        <f>LEN(E454)-LEN(SUBSTITUTE(E454,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G454" s="6">
+      <c r="G454" s="5">
         <v>0.002</v>
       </c>
       <c r="H454" s="4" t="s">
@@ -15749,10 +15760,10 @@
         <v>904</v>
       </c>
       <c r="F455" s="4">
-        <f>LEN(E455)-LEN(SUBSTITUTE(E455,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G455" s="6">
+      <c r="G455" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H455" s="4" t="s">
@@ -15776,10 +15787,10 @@
         <v>906</v>
       </c>
       <c r="F456" s="4">
-        <f>LEN(E456)-LEN(SUBSTITUTE(E456,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G456" s="6">
+      <c r="G456" s="5">
         <v>0.035999999999999997</v>
       </c>
       <c r="H456" s="4" t="s">
@@ -15803,10 +15814,10 @@
         <v>908</v>
       </c>
       <c r="F457" s="4">
-        <f>LEN(E457)-LEN(SUBSTITUTE(E457,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G457" s="6">
+      <c r="G457" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H457" s="4" t="s">
@@ -15830,10 +15841,10 @@
         <v>910</v>
       </c>
       <c r="F458" s="4">
-        <f>LEN(E458)-LEN(SUBSTITUTE(E458,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="G458" s="6">
+      <c r="G458" s="5">
         <v>0.099000000000000005</v>
       </c>
       <c r="H458" s="4" t="s">
@@ -15857,10 +15868,10 @@
         <v>912</v>
       </c>
       <c r="F459" s="4">
-        <f>LEN(E459)-LEN(SUBSTITUTE(E459,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G459" s="6">
+      <c r="G459" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H459" s="4" t="s">
@@ -15884,10 +15895,10 @@
         <v>914</v>
       </c>
       <c r="F460" s="4">
-        <f>LEN(E460)-LEN(SUBSTITUTE(E460,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G460" s="6">
+      <c r="G460" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H460" s="4" t="s">
@@ -15911,10 +15922,10 @@
         <v>916</v>
       </c>
       <c r="F461" s="4">
-        <f>LEN(E461)-LEN(SUBSTITUTE(E461,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G461" s="6">
+      <c r="G461" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H461" s="4" t="s">
@@ -15938,10 +15949,10 @@
         <v>918</v>
       </c>
       <c r="F462" s="4">
-        <f>LEN(E462)-LEN(SUBSTITUTE(E462,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G462" s="6">
+      <c r="G462" s="5">
         <v>0.036999999999999998</v>
       </c>
       <c r="H462" s="4" t="s">
@@ -15965,10 +15976,10 @@
         <v>920</v>
       </c>
       <c r="F463" s="4">
-        <f>LEN(E463)-LEN(SUBSTITUTE(E463,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G463" s="6">
+      <c r="G463" s="5">
         <v>0.012</v>
       </c>
       <c r="H463" s="4" t="s">
@@ -15992,10 +16003,10 @@
         <v>922</v>
       </c>
       <c r="F464" s="4">
-        <f>LEN(E464)-LEN(SUBSTITUTE(E464,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G464" s="6">
+      <c r="G464" s="5">
         <v>0.001</v>
       </c>
       <c r="H464" s="4" t="s">
@@ -16019,10 +16030,10 @@
         <v>924</v>
       </c>
       <c r="F465" s="4">
-        <f>LEN(E465)-LEN(SUBSTITUTE(E465,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G465" s="6">
+      <c r="G465" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H465" s="4" t="s">
@@ -16046,10 +16057,10 @@
         <v>926</v>
       </c>
       <c r="F466" s="4">
-        <f>LEN(E466)-LEN(SUBSTITUTE(E466,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G466" s="6">
+      <c r="G466" s="5">
         <v>0.023</v>
       </c>
       <c r="H466" s="4" t="s">
@@ -16073,10 +16084,10 @@
         <v>928</v>
       </c>
       <c r="F467" s="4">
-        <f>LEN(E467)-LEN(SUBSTITUTE(E467,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G467" s="6">
+      <c r="G467" s="5">
         <v>0.043999999999999997</v>
       </c>
       <c r="H467" s="4" t="s">
@@ -16100,10 +16111,10 @@
         <v>930</v>
       </c>
       <c r="F468" s="4">
-        <f>LEN(E468)-LEN(SUBSTITUTE(E468,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G468" s="6">
+      <c r="G468" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H468" s="4" t="s">
@@ -16127,10 +16138,10 @@
         <v>932</v>
       </c>
       <c r="F469" s="4">
-        <f>LEN(E469)-LEN(SUBSTITUTE(E469,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G469" s="6">
+      <c r="G469" s="5">
         <v>0.033000000000000002</v>
       </c>
       <c r="H469" s="4" t="s">
@@ -16154,10 +16165,10 @@
         <v>934</v>
       </c>
       <c r="F470" s="4">
-        <f>LEN(E470)-LEN(SUBSTITUTE(E470,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G470" s="6">
+      <c r="G470" s="5">
         <v>0.053999999999999999</v>
       </c>
       <c r="H470" s="4" t="s">
@@ -16181,10 +16192,10 @@
         <v>936</v>
       </c>
       <c r="F471" s="4">
-        <f>LEN(E471)-LEN(SUBSTITUTE(E471,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G471" s="6">
+      <c r="G471" s="5">
         <v>0.002</v>
       </c>
       <c r="H471" s="4" t="s">
@@ -16208,10 +16219,10 @@
         <v>938</v>
       </c>
       <c r="F472" s="4">
-        <f>LEN(E472)-LEN(SUBSTITUTE(E472,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G472" s="6">
+      <c r="G472" s="5">
         <v>0.014999999999999999</v>
       </c>
       <c r="H472" s="4" t="s">
@@ -16235,10 +16246,10 @@
         <v>940</v>
       </c>
       <c r="F473" s="4">
-        <f>LEN(E473)-LEN(SUBSTITUTE(E473,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="G473" s="6">
+      <c r="G473" s="5">
         <v>0.017999999999999999</v>
       </c>
       <c r="H473" s="4" t="s">
@@ -16262,10 +16273,10 @@
         <v>942</v>
       </c>
       <c r="F474" s="4">
-        <f>LEN(E474)-LEN(SUBSTITUTE(E474,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G474" s="6">
+      <c r="G474" s="5">
         <v>0.002</v>
       </c>
       <c r="H474" s="4" t="s">
@@ -16289,10 +16300,10 @@
         <v>944</v>
       </c>
       <c r="F475" s="4">
-        <f>LEN(E475)-LEN(SUBSTITUTE(E475,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G475" s="6">
+      <c r="G475" s="5">
         <v>0.002</v>
       </c>
       <c r="H475" s="4" t="s">
@@ -16316,10 +16327,10 @@
         <v>946</v>
       </c>
       <c r="F476" s="4">
-        <f>LEN(E476)-LEN(SUBSTITUTE(E476,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G476" s="6">
+      <c r="G476" s="5">
         <v>0.016</v>
       </c>
       <c r="H476" s="4" t="s">
@@ -16343,10 +16354,10 @@
         <v>948</v>
       </c>
       <c r="F477" s="4">
-        <f>LEN(E477)-LEN(SUBSTITUTE(E477,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G477" s="6">
+      <c r="G477" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H477" s="4" t="s">
@@ -16370,10 +16381,10 @@
         <v>950</v>
       </c>
       <c r="F478" s="4">
-        <f>LEN(E478)-LEN(SUBSTITUTE(E478,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="G478" s="6">
+      <c r="G478" s="5">
         <v>0.002</v>
       </c>
       <c r="H478" s="4" t="s">
@@ -16397,10 +16408,10 @@
         <v>952</v>
       </c>
       <c r="F479" s="4">
-        <f>LEN(E479)-LEN(SUBSTITUTE(E479,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="G479" s="6">
+      <c r="G479" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H479" s="4" t="s">
@@ -16424,10 +16435,10 @@
         <v>954</v>
       </c>
       <c r="F480" s="4">
-        <f>LEN(E480)-LEN(SUBSTITUTE(E480,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G480" s="6">
+      <c r="G480" s="5">
         <v>0.024</v>
       </c>
       <c r="H480" s="4" t="s">
@@ -16451,10 +16462,10 @@
         <v>956</v>
       </c>
       <c r="F481" s="4">
-        <f>LEN(E481)-LEN(SUBSTITUTE(E481,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G481" s="6">
+      <c r="G481" s="5">
         <v>0.0040000000000000001</v>
       </c>
       <c r="H481" s="4" t="s">
@@ -16478,10 +16489,10 @@
         <v>958</v>
       </c>
       <c r="F482" s="4">
-        <f>LEN(E482)-LEN(SUBSTITUTE(E482,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G482" s="6">
+      <c r="G482" s="5">
         <v>0.002</v>
       </c>
       <c r="H482" s="4" t="s">
@@ -16505,10 +16516,10 @@
         <v>960</v>
       </c>
       <c r="F483" s="4">
-        <f>LEN(E483)-LEN(SUBSTITUTE(E483,"1",""))</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="G483" s="6">
+      <c r="G483" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H483" s="4" t="s">
@@ -16532,10 +16543,10 @@
         <v>962</v>
       </c>
       <c r="F484" s="4">
-        <f>LEN(E484)-LEN(SUBSTITUTE(E484,"1",""))</f>
+        <f t="shared" ref="F484:F506" si="9">LEN(E484)-LEN(SUBSTITUTE(E484,"1",""))</f>
         <v>6</v>
       </c>
-      <c r="G484" s="6">
+      <c r="G484" s="5">
         <v>0.14999999999999999</v>
       </c>
       <c r="H484" s="4" t="s">
@@ -16559,10 +16570,10 @@
         <v>964</v>
       </c>
       <c r="F485" s="4">
-        <f>LEN(E485)-LEN(SUBSTITUTE(E485,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G485" s="6">
+      <c r="G485" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H485" s="4" t="s">
@@ -16586,10 +16597,10 @@
         <v>966</v>
       </c>
       <c r="F486" s="4">
-        <f>LEN(E486)-LEN(SUBSTITUTE(E486,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="G486" s="6">
+      <c r="G486" s="5">
         <v>0.0050000000000000001</v>
       </c>
       <c r="H486" s="4" t="s">
@@ -16613,10 +16624,10 @@
         <v>968</v>
       </c>
       <c r="F487" s="4">
-        <f>LEN(E487)-LEN(SUBSTITUTE(E487,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="G487" s="6">
+      <c r="G487" s="5">
         <v>0.002</v>
       </c>
       <c r="H487" s="4" t="s">
@@ -16640,10 +16651,10 @@
         <v>970</v>
       </c>
       <c r="F488" s="4">
-        <f>LEN(E488)-LEN(SUBSTITUTE(E488,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="G488" s="6">
+      <c r="G488" s="5">
         <v>0.002</v>
       </c>
       <c r="H488" s="4" t="s">
@@ -16667,10 +16678,10 @@
         <v>972</v>
       </c>
       <c r="F489" s="4">
-        <f>LEN(E489)-LEN(SUBSTITUTE(E489,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="G489" s="6">
+      <c r="G489" s="5">
         <v>0.001</v>
       </c>
       <c r="H489" s="4" t="s">
@@ -16694,10 +16705,10 @@
         <v>974</v>
       </c>
       <c r="F490" s="4">
-        <f>LEN(E490)-LEN(SUBSTITUTE(E490,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="G490" s="6">
+      <c r="G490" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H490" s="4" t="s">
@@ -16721,10 +16732,10 @@
         <v>976</v>
       </c>
       <c r="F491" s="4">
-        <f>LEN(E491)-LEN(SUBSTITUTE(E491,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="G491" s="6">
+      <c r="G491" s="5">
         <v>0.20799999999999999</v>
       </c>
       <c r="H491" s="4" t="s">
@@ -16748,10 +16759,10 @@
         <v>978</v>
       </c>
       <c r="F492" s="4">
-        <f>LEN(E492)-LEN(SUBSTITUTE(E492,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G492" s="6">
+      <c r="G492" s="5">
         <v>0.13</v>
       </c>
       <c r="H492" s="4" t="s">
@@ -16775,10 +16786,10 @@
         <v>980</v>
       </c>
       <c r="F493" s="4">
-        <f>LEN(E493)-LEN(SUBSTITUTE(E493,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="G493" s="6">
+      <c r="G493" s="5">
         <v>0.002</v>
       </c>
       <c r="H493" s="4" t="s">
@@ -16802,10 +16813,10 @@
         <v>982</v>
       </c>
       <c r="F494" s="4">
-        <f>LEN(E494)-LEN(SUBSTITUTE(E494,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="G494" s="6">
+      <c r="G494" s="5">
         <v>0.021000000000000001</v>
       </c>
       <c r="H494" s="4" t="s">
@@ -16829,10 +16840,10 @@
         <v>984</v>
       </c>
       <c r="F495" s="4">
-        <f>LEN(E495)-LEN(SUBSTITUTE(E495,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="G495" s="6">
+      <c r="G495" s="5">
         <v>0.001</v>
       </c>
       <c r="H495" s="4" t="s">
@@ -16856,10 +16867,10 @@
         <v>986</v>
       </c>
       <c r="F496" s="4">
-        <f>LEN(E496)-LEN(SUBSTITUTE(E496,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G496" s="6">
+      <c r="G496" s="5">
         <v>0.060999999999999999</v>
       </c>
       <c r="H496" s="4" t="s">
@@ -16883,10 +16894,10 @@
         <v>988</v>
       </c>
       <c r="F497" s="4">
-        <f>LEN(E497)-LEN(SUBSTITUTE(E497,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="G497" s="6">
+      <c r="G497" s="5">
         <v>0.001</v>
       </c>
       <c r="H497" s="4" t="s">
@@ -16910,10 +16921,10 @@
         <v>990</v>
       </c>
       <c r="F498" s="4">
-        <f>LEN(E498)-LEN(SUBSTITUTE(E498,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G498" s="6">
+      <c r="G498" s="5">
         <v>0.041000000000000002</v>
       </c>
       <c r="H498" s="4" t="s">
@@ -16937,10 +16948,10 @@
         <v>992</v>
       </c>
       <c r="F499" s="4">
-        <f>LEN(E499)-LEN(SUBSTITUTE(E499,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="G499" s="6">
+      <c r="G499" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H499" s="4" t="s">
@@ -16964,10 +16975,10 @@
         <v>994</v>
       </c>
       <c r="F500" s="4">
-        <f>LEN(E500)-LEN(SUBSTITUTE(E500,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="G500" s="6">
+      <c r="G500" s="5">
         <v>0.0030000000000000001</v>
       </c>
       <c r="H500" s="4" t="s">
@@ -16991,10 +17002,10 @@
         <v>996</v>
       </c>
       <c r="F501" s="4">
-        <f>LEN(E501)-LEN(SUBSTITUTE(E501,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G501" s="6">
+      <c r="G501" s="5">
         <v>0.001</v>
       </c>
       <c r="H501" s="4" t="s">
@@ -17018,10 +17029,10 @@
         <v>998</v>
       </c>
       <c r="F502" s="4">
-        <f>LEN(E502)-LEN(SUBSTITUTE(E502,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="G502" s="6">
+      <c r="G502" s="5">
         <v>0.002</v>
       </c>
       <c r="H502" s="4" t="s">
@@ -17045,10 +17056,10 @@
         <v>1000</v>
       </c>
       <c r="F503" s="4">
-        <f>LEN(E503)-LEN(SUBSTITUTE(E503,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="G503" s="6">
+      <c r="G503" s="5">
         <v>0.0070000000000000001</v>
       </c>
       <c r="H503" s="4" t="s">
@@ -17072,10 +17083,10 @@
         <v>1002</v>
       </c>
       <c r="F504" s="4">
-        <f>LEN(E504)-LEN(SUBSTITUTE(E504,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="G504" s="6">
+      <c r="G504" s="5">
         <v>0.0080000000000000002</v>
       </c>
       <c r="H504" s="4" t="s">
@@ -17099,10 +17110,10 @@
         <v>1004</v>
       </c>
       <c r="F505" s="4">
-        <f>LEN(E505)-LEN(SUBSTITUTE(E505,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="G505" s="6">
+      <c r="G505" s="5">
         <v>0.002</v>
       </c>
       <c r="H505" s="4" t="s">
@@ -17126,10 +17137,10 @@
         <v>1006</v>
       </c>
       <c r="F506" s="4">
-        <f>LEN(E506)-LEN(SUBSTITUTE(E506,"1",""))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="G506" s="6">
+      <c r="G506" s="5">
         <v>0.002</v>
       </c>
       <c r="H506" s="4" t="s">
@@ -17151,7 +17162,10 @@
   </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>